--- a/DDAf_2025_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0733CB4-5B35-4757-B8B6-C96C7D95A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B2E8B1-8561-4BB6-A22B-A67BE65F8177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BB228B3C-55C3-4FF4-990F-8638DA08FB2D}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{8D19736C-A662-4DED-B962-CF33D0A521C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organisation (retrieved 09/09/2025), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in January 2025), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025).</t>
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABE7764-02EC-42DD-8F24-E9192F618CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BD39FD-B39D-44CD-A28B-32D8521C6AB3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1603,15 +1603,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="96" customWidth="1"/>
-    <col min="16" max="19" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="96" customWidth="1"/>
+    <col min="16" max="19" width="12.453125" style="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1633,7 +1633,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>2.0982479999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>7.0538040000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>12.307411999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>22.884253000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>3.9303499999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4.7449969999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>7.8086739999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>8.0780279999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>5.7778450000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
@@ -2282,28 +2282,28 @@
         <v>5.5593300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="33">
-        <v>1.577593</v>
+        <v>1.5503800000000001</v>
       </c>
       <c r="D13" s="34">
-        <v>1.3106990000000001</v>
+        <v>1.321766</v>
       </c>
       <c r="E13" s="34">
-        <v>0.34366999999999998</v>
+        <v>0.337065</v>
       </c>
       <c r="F13" s="34">
-        <v>6.1898210000000002</v>
+        <v>6.0719950000000003</v>
       </c>
       <c r="G13" s="34">
-        <v>3.824481</v>
+        <v>3.833402</v>
       </c>
       <c r="H13" s="35">
-        <v>13.246264999999999</v>
+        <v>13.114608</v>
       </c>
       <c r="I13" s="33">
         <v>6.7582969999999998</v>
@@ -2339,7 +2339,7 @@
         <v>8.0242939999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1.169753</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>9.6803840000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>4.7022940000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>7.3764349999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>49</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>18.103991000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>6.4305899999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>7.7753009999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>7.465706</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>6.5462910000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
         <v>59</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="34">
-        <v>5.2239779999999998</v>
+        <v>5.279325</v>
       </c>
       <c r="E23" s="34">
-        <v>0.69191999999999998</v>
+        <v>0.68224399999999996</v>
       </c>
       <c r="F23" s="34">
-        <v>7.9238160000000004</v>
+        <v>7.8306639999999996</v>
       </c>
       <c r="G23" s="34">
-        <v>8.7877039999999997</v>
+        <v>9.0390119999999996</v>
       </c>
       <c r="H23" s="35">
-        <v>22.627417000000001</v>
+        <v>22.831244999999999</v>
       </c>
       <c r="I23" s="33">
         <v>16.503999</v>
@@ -2927,7 +2927,7 @@
         <v>7.6945269999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>60</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>5.8888990000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0.25947500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>64</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>4.9866659999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>67</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3.1717689999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>6.7964570000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>5.6213879999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>73</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>11.279576</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>75</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>4.0052289999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>79</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>10.930908000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>81</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>5.9419700000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>83</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>3.024921</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>85</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4.5801319999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>87</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>4.2952940000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
         <v>89</v>
@@ -3762,19 +3762,19 @@
         <v>8.116E-3</v>
       </c>
       <c r="D38" s="34">
-        <v>3.7696390000000002</v>
+        <v>3.769666</v>
       </c>
       <c r="E38" s="34">
         <v>3.7990999999999997E-2</v>
       </c>
       <c r="F38" s="34">
-        <v>0.45434000000000002</v>
+        <v>0.45433200000000001</v>
       </c>
       <c r="G38" s="34">
-        <v>1.632887</v>
+        <v>1.6328659999999999</v>
       </c>
       <c r="H38" s="35">
-        <v>5.9029730000000002</v>
+        <v>5.9029699999999998</v>
       </c>
       <c r="I38" s="33">
         <v>27.885902000000002</v>
@@ -3810,7 +3810,7 @@
         <v>5.4448220000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>10.464718</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>12.586294000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>94</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>8.6308129999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>96</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>6.5644419999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>98</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>10.903909000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>100</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>18.733706999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31"/>
       <c r="B45" s="32" t="s">
         <v>102</v>
@@ -4176,7 +4176,7 @@
         <v>0.12745400000000001</v>
       </c>
       <c r="E45" s="34">
-        <v>3.1045150000000001</v>
+        <v>3.1045159999999998</v>
       </c>
       <c r="F45" s="34">
         <v>6.6921790000000003</v>
@@ -4185,7 +4185,7 @@
         <v>0.11906</v>
       </c>
       <c r="H45" s="35">
-        <v>10.049447000000001</v>
+        <v>10.049448</v>
       </c>
       <c r="I45" s="33">
         <v>10.938162</v>
@@ -4221,7 +4221,7 @@
         <v>11.313980000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>103</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>16.500354999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>105</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>14.691846</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>107</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>9.9286510000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>109</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>6.911124</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>111</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>8.1535270000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>113</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>11.356491</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>115</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>2.6042939999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>117</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>6.9840410000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>119</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>3.3877320000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>121</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>6.8871659999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>123</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>5.5851730000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>125</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>12.658315</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>127</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>13.002141</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>4.4382900000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>131</v>
       </c>
@@ -5106,28 +5106,28 @@
         <v>15.098188</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="33">
-        <v>3.5475E-2</v>
+        <v>2.8899000000000001E-2</v>
       </c>
       <c r="D61" s="34">
-        <v>1.9567239999999999</v>
+        <v>1.801922</v>
       </c>
       <c r="E61" s="34">
-        <v>0.78366499999999994</v>
+        <v>0.85586499999999999</v>
       </c>
       <c r="F61" s="34">
-        <v>4.3020699999999996</v>
+        <v>4.6677530000000003</v>
       </c>
       <c r="G61" s="34">
-        <v>1.851648</v>
+        <v>1.5045409999999999</v>
       </c>
       <c r="H61" s="35">
-        <v>8.9204559999999997</v>
+        <v>8.8508870000000002</v>
       </c>
       <c r="I61" s="33">
         <v>23.875924999999999</v>
@@ -5163,28 +5163,28 @@
         <v>9.2124889999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="60">
-        <v>0.295908</v>
+        <v>0.279443</v>
       </c>
       <c r="D62" s="61">
-        <v>1.6225540000000001</v>
+        <v>1.6026260000000001</v>
       </c>
       <c r="E62" s="61">
-        <v>1.43842</v>
+        <v>1.4179409999999999</v>
       </c>
       <c r="F62" s="61">
-        <v>5.114751</v>
+        <v>5.1557810000000002</v>
       </c>
       <c r="G62" s="61">
-        <v>1.9031990000000001</v>
+        <v>1.8272079999999999</v>
       </c>
       <c r="H62" s="62">
-        <v>10.370727</v>
+        <v>10.279185999999999</v>
       </c>
       <c r="I62" s="60">
         <v>16.489359</v>
@@ -5220,28 +5220,28 @@
         <v>8.0442940000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="58"/>
       <c r="B63" s="59" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="60">
-        <v>0.33741300000000002</v>
+        <v>0.33656700000000001</v>
       </c>
       <c r="D63" s="61">
-        <v>0.142426</v>
+        <v>0.141568</v>
       </c>
       <c r="E63" s="61">
-        <v>0.68925999999999998</v>
+        <v>0.69418500000000005</v>
       </c>
       <c r="F63" s="61">
-        <v>1.704437</v>
+        <v>1.7462930000000001</v>
       </c>
       <c r="G63" s="61">
-        <v>0.93586999999999998</v>
+        <v>0.93595899999999999</v>
       </c>
       <c r="H63" s="62">
-        <v>3.809164</v>
+        <v>3.85433</v>
       </c>
       <c r="I63" s="60">
         <v>4.1906829999999999</v>
@@ -5277,28 +5277,28 @@
         <v>11.524908</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="64"/>
       <c r="B64" s="65" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="66">
-        <v>6.7240999999999995E-2</v>
+        <v>6.7177000000000001E-2</v>
       </c>
       <c r="D64" s="67">
-        <v>0.42311399999999999</v>
+        <v>0.42281400000000002</v>
       </c>
       <c r="E64" s="67">
-        <v>0.15109800000000001</v>
+        <v>0.151168</v>
       </c>
       <c r="F64" s="67">
-        <v>2.0279150000000001</v>
+        <v>2.0261740000000001</v>
       </c>
       <c r="G64" s="67">
-        <v>3.5283389999999999</v>
+        <v>3.5334159999999999</v>
       </c>
       <c r="H64" s="68">
-        <v>6.1977070000000003</v>
+        <v>6.2007490000000001</v>
       </c>
       <c r="I64" s="66">
         <v>6.1948460000000001</v>
@@ -5334,28 +5334,28 @@
         <v>9.7542740000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="64"/>
       <c r="B65" s="70" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="71">
-        <v>0.68925899999999996</v>
+        <v>0.68862400000000001</v>
       </c>
       <c r="D65" s="72">
-        <v>0.18761700000000001</v>
+        <v>0.18616199999999999</v>
       </c>
       <c r="E65" s="72">
-        <v>0.61604099999999995</v>
+        <v>0.62605599999999995</v>
       </c>
       <c r="F65" s="72">
-        <v>1.2290380000000001</v>
+        <v>1.2552570000000001</v>
       </c>
       <c r="G65" s="72">
-        <v>0.87979300000000005</v>
+        <v>0.88283299999999998</v>
       </c>
       <c r="H65" s="73">
-        <v>3.6010010000000001</v>
+        <v>3.6381869999999998</v>
       </c>
       <c r="I65" s="71">
         <v>9.8506239999999998</v>
@@ -5391,28 +5391,28 @@
         <v>11.798079</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="64"/>
       <c r="B66" s="75" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="76">
-        <v>0.33522400000000002</v>
+        <v>0.33339000000000002</v>
       </c>
       <c r="D66" s="77">
-        <v>0.22043099999999999</v>
+        <v>0.22279199999999999</v>
       </c>
       <c r="E66" s="77">
-        <v>0.72863699999999998</v>
+        <v>0.73431900000000006</v>
       </c>
       <c r="F66" s="77">
-        <v>1.8841730000000001</v>
+        <v>1.9358420000000001</v>
       </c>
       <c r="G66" s="77">
-        <v>0.98685</v>
+        <v>0.98550599999999999</v>
       </c>
       <c r="H66" s="78">
-        <v>4.1549699999999996</v>
+        <v>4.2115030000000004</v>
       </c>
       <c r="I66" s="76">
         <v>4.5441010000000004</v>
@@ -5448,28 +5448,28 @@
         <v>10.488545999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="64"/>
       <c r="B67" s="70" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="71">
-        <v>1.1220000000000001E-2</v>
+        <v>1.3698999999999999E-2</v>
       </c>
       <c r="D67" s="72">
-        <v>1.974335</v>
+        <v>1.98525</v>
       </c>
       <c r="E67" s="72">
-        <v>1.205732</v>
+        <v>1.1929529999999999</v>
       </c>
       <c r="F67" s="72">
-        <v>3.3358449999999999</v>
+        <v>3.302</v>
       </c>
       <c r="G67" s="72">
-        <v>2.1556549999999999</v>
+        <v>2.2189459999999999</v>
       </c>
       <c r="H67" s="73">
-        <v>8.6827869999999994</v>
+        <v>8.7128479999999993</v>
       </c>
       <c r="I67" s="71">
         <v>17.662462999999999</v>
@@ -5505,28 +5505,28 @@
         <v>6.7693339999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="64"/>
       <c r="B68" s="70" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="71">
-        <v>4.5230000000000001E-3</v>
+        <v>4.1520000000000003E-3</v>
       </c>
       <c r="D68" s="72">
-        <v>1.111351</v>
+        <v>1.1138239999999999</v>
       </c>
       <c r="E68" s="72">
-        <v>1.2306280000000001</v>
+        <v>1.2244120000000001</v>
       </c>
       <c r="F68" s="72">
-        <v>4.4678750000000003</v>
+        <v>4.6314260000000003</v>
       </c>
       <c r="G68" s="72">
-        <v>1.125942</v>
+        <v>1.0230980000000001</v>
       </c>
       <c r="H68" s="73">
-        <v>7.934069</v>
+        <v>7.9912640000000001</v>
       </c>
       <c r="I68" s="71">
         <v>18.50947</v>
@@ -5562,28 +5562,28 @@
         <v>8.7783890000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="64"/>
       <c r="B69" s="70" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="71">
-        <v>1.2735E-2</v>
+        <v>1.2645E-2</v>
       </c>
       <c r="D69" s="72">
-        <v>4.1650119999999999</v>
+        <v>4.2016470000000004</v>
       </c>
       <c r="E69" s="72">
-        <v>5.9916999999999998E-2</v>
+        <v>5.9493999999999998E-2</v>
       </c>
       <c r="F69" s="72">
-        <v>0.10659</v>
+        <v>0.110413</v>
       </c>
       <c r="G69" s="72">
-        <v>5.7663859999999998</v>
+        <v>5.9285560000000004</v>
       </c>
       <c r="H69" s="73">
-        <v>10.11064</v>
+        <v>10.312754999999999</v>
       </c>
       <c r="I69" s="71">
         <v>23.413889000000001</v>
@@ -5619,7 +5619,7 @@
         <v>4.7456319999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="64"/>
       <c r="B70" s="70" t="s">
         <v>142</v>
@@ -5628,19 +5628,19 @@
         <v>0</v>
       </c>
       <c r="D70" s="72">
-        <v>3.3590409999999999</v>
+        <v>3.40455</v>
       </c>
       <c r="E70" s="72">
-        <v>0.78889399999999998</v>
+        <v>0.78273000000000004</v>
       </c>
       <c r="F70" s="72">
-        <v>15.635242</v>
+        <v>15.522891</v>
       </c>
       <c r="G70" s="72">
-        <v>4.8795849999999996</v>
+        <v>5.0505639999999996</v>
       </c>
       <c r="H70" s="73">
-        <v>24.662762000000001</v>
+        <v>24.760735</v>
       </c>
       <c r="I70" s="71">
         <v>15.878102</v>
@@ -5676,28 +5676,28 @@
         <v>6.850384</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="64"/>
       <c r="B71" s="70" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="71">
-        <v>3.5475E-2</v>
+        <v>2.8899000000000001E-2</v>
       </c>
       <c r="D71" s="72">
-        <v>1.9567239999999999</v>
+        <v>1.801922</v>
       </c>
       <c r="E71" s="72">
-        <v>0.78366499999999994</v>
+        <v>0.85586499999999999</v>
       </c>
       <c r="F71" s="72">
-        <v>4.3020699999999996</v>
+        <v>4.6677530000000003</v>
       </c>
       <c r="G71" s="72">
-        <v>1.851648</v>
+        <v>1.5045409999999999</v>
       </c>
       <c r="H71" s="73">
-        <v>8.9204559999999997</v>
+        <v>8.8508870000000002</v>
       </c>
       <c r="I71" s="71">
         <v>23.875924999999999</v>
@@ -5733,7 +5733,7 @@
         <v>9.2124889999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="64"/>
       <c r="B72" s="70" t="s">
         <v>144</v>
@@ -5742,19 +5742,19 @@
         <v>5.5999999999999999E-5</v>
       </c>
       <c r="D72" s="72">
-        <v>4.1151559999999998</v>
+        <v>4.115189</v>
       </c>
       <c r="E72" s="72">
         <v>0</v>
       </c>
       <c r="F72" s="72">
-        <v>0.60773100000000002</v>
+        <v>0.60771799999999998</v>
       </c>
       <c r="G72" s="72">
-        <v>1.312594</v>
+        <v>1.312568</v>
       </c>
       <c r="H72" s="73">
-        <v>6.0355359999999996</v>
+        <v>6.0355309999999998</v>
       </c>
       <c r="I72" s="71">
         <v>29.084800000000001</v>
@@ -5790,28 +5790,28 @@
         <v>4.9172560000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="64"/>
       <c r="B73" s="70" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="71">
-        <v>1.23167</v>
+        <v>1.2119930000000001</v>
       </c>
       <c r="D73" s="72">
-        <v>2.072441</v>
+        <v>2.0912890000000002</v>
       </c>
       <c r="E73" s="72">
-        <v>0.29159000000000002</v>
+        <v>0.28636099999999998</v>
       </c>
       <c r="F73" s="72">
-        <v>4.8587129999999998</v>
+        <v>4.7743630000000001</v>
       </c>
       <c r="G73" s="72">
-        <v>5.4212689999999997</v>
+        <v>5.4736370000000001</v>
       </c>
       <c r="H73" s="73">
-        <v>13.875681999999999</v>
+        <v>13.837643</v>
       </c>
       <c r="I73" s="71">
         <v>9.9176179999999992</v>
@@ -5847,7 +5847,7 @@
         <v>7.6029020000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="64"/>
       <c r="B74" s="70" t="s">
         <v>146</v>
@@ -5859,16 +5859,16 @@
         <v>0.15517500000000001</v>
       </c>
       <c r="E74" s="72">
-        <v>4.5813110000000004</v>
+        <v>4.5813119999999996</v>
       </c>
       <c r="F74" s="72">
-        <v>11.861802000000001</v>
+        <v>11.861803</v>
       </c>
       <c r="G74" s="72">
         <v>0.28512500000000002</v>
       </c>
       <c r="H74" s="73">
-        <v>16.898354000000001</v>
+        <v>16.898354999999999</v>
       </c>
       <c r="I74" s="71">
         <v>10.425321</v>
@@ -5904,7 +5904,7 @@
         <v>11.059518000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="64"/>
       <c r="B75" s="70" t="s">
         <v>147</v>
@@ -5961,28 +5961,28 @@
         <v>6.0604459999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="64"/>
       <c r="B76" s="84" t="s">
         <v>148</v>
       </c>
       <c r="C76" s="85">
-        <v>0.53046000000000004</v>
+        <v>0.53217300000000001</v>
       </c>
       <c r="D76" s="86">
-        <v>0.63205599999999995</v>
+        <v>0.626641</v>
       </c>
       <c r="E76" s="86">
-        <v>1.0605929999999999</v>
+        <v>1.0488649999999999</v>
       </c>
       <c r="F76" s="86">
-        <v>0.693546</v>
+        <v>0.69576300000000002</v>
       </c>
       <c r="G76" s="86">
-        <v>0.97486099999999998</v>
+        <v>0.97125499999999998</v>
       </c>
       <c r="H76" s="87">
-        <v>3.888147</v>
+        <v>3.871305</v>
       </c>
       <c r="I76" s="85">
         <v>10.006294</v>
@@ -6018,28 +6018,28 @@
         <v>12.804247999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="64"/>
       <c r="B77" s="70" t="s">
         <v>149</v>
       </c>
       <c r="C77" s="71">
-        <v>9.2923000000000006E-2</v>
+        <v>9.2829999999999996E-2</v>
       </c>
       <c r="D77" s="72">
-        <v>0.53032699999999999</v>
+        <v>0.52990099999999996</v>
       </c>
       <c r="E77" s="72">
-        <v>0.16205</v>
+        <v>0.16214999999999999</v>
       </c>
       <c r="F77" s="72">
-        <v>2.2304550000000001</v>
+        <v>2.2284039999999998</v>
       </c>
       <c r="G77" s="72">
-        <v>4.5790730000000002</v>
+        <v>4.5868799999999998</v>
       </c>
       <c r="H77" s="73">
-        <v>7.5948289999999998</v>
+        <v>7.6001649999999996</v>
       </c>
       <c r="I77" s="71">
         <v>7.047828</v>
@@ -6075,28 +6075,28 @@
         <v>10.325422</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="64"/>
       <c r="B78" s="70" t="s">
         <v>150</v>
       </c>
       <c r="C78" s="71">
-        <v>2.3928999999999999E-2</v>
+        <v>2.3935000000000001E-2</v>
       </c>
       <c r="D78" s="72">
-        <v>6.2558000000000002E-2</v>
+        <v>6.2524999999999997E-2</v>
       </c>
       <c r="E78" s="72">
         <v>5.2946E-2</v>
       </c>
       <c r="F78" s="72">
-        <v>4.6697000000000002E-2</v>
+        <v>4.6670000000000003E-2</v>
       </c>
       <c r="G78" s="72">
-        <v>8.0253000000000005E-2</v>
+        <v>8.0012E-2</v>
       </c>
       <c r="H78" s="73">
-        <v>0.26638299999999998</v>
+        <v>0.26608700000000002</v>
       </c>
       <c r="I78" s="71">
         <v>1.8653839999999999</v>
@@ -6132,28 +6132,28 @@
         <v>15.153535</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="64"/>
       <c r="B79" s="75" t="s">
         <v>151</v>
       </c>
       <c r="C79" s="76">
-        <v>9.4672000000000006E-2</v>
+        <v>9.4674999999999995E-2</v>
       </c>
       <c r="D79" s="77">
-        <v>5.3770999999999999E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="E79" s="77">
-        <v>0.24265200000000001</v>
+        <v>0.24251</v>
       </c>
       <c r="F79" s="77">
-        <v>0.50156100000000003</v>
+        <v>0.50128600000000001</v>
       </c>
       <c r="G79" s="77">
-        <v>0.54564900000000005</v>
+        <v>0.54537199999999997</v>
       </c>
       <c r="H79" s="78">
-        <v>1.438304</v>
+        <v>1.437543</v>
       </c>
       <c r="I79" s="76">
         <v>1.5906659999999999</v>
@@ -6189,28 +6189,28 @@
         <v>13.61445</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="64"/>
       <c r="B80" s="84" t="s">
         <v>152</v>
       </c>
       <c r="C80" s="85">
-        <v>7.0682999999999996E-2</v>
+        <v>7.0668999999999996E-2</v>
       </c>
       <c r="D80" s="86">
-        <v>0.65623900000000002</v>
+        <v>0.65700899999999995</v>
       </c>
       <c r="E80" s="86">
-        <v>4.9971139999999998</v>
+        <v>4.9961359999999999</v>
       </c>
       <c r="F80" s="86">
-        <v>21.28782</v>
+        <v>21.286928</v>
       </c>
       <c r="G80" s="86">
-        <v>0.21868099999999999</v>
+        <v>0.218638</v>
       </c>
       <c r="H80" s="87">
-        <v>27.230536000000001</v>
+        <v>27.229379000000002</v>
       </c>
       <c r="I80" s="85">
         <v>11.251455999999999</v>
@@ -6246,28 +6246,28 @@
         <v>8.4350269999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="64"/>
       <c r="B81" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C81" s="71">
-        <v>0.35727199999999998</v>
+        <v>0.34847099999999998</v>
       </c>
       <c r="D81" s="72">
-        <v>0.16370199999999999</v>
+        <v>0.15971099999999999</v>
       </c>
       <c r="E81" s="72">
-        <v>5.171227</v>
+        <v>5.133038</v>
       </c>
       <c r="F81" s="72">
-        <v>14.877416999999999</v>
+        <v>15.052368</v>
       </c>
       <c r="G81" s="72">
-        <v>2.2303299999999999</v>
+        <v>2.20017</v>
       </c>
       <c r="H81" s="73">
-        <v>22.799949000000002</v>
+        <v>22.893757999999998</v>
       </c>
       <c r="I81" s="71">
         <v>4.3157170000000002</v>
@@ -6303,28 +6303,28 @@
         <v>9.3178420000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="64"/>
       <c r="B82" s="70" t="s">
         <v>154</v>
       </c>
       <c r="C82" s="71">
-        <v>0.336231</v>
+        <v>0.31432399999999999</v>
       </c>
       <c r="D82" s="72">
-        <v>1.7955620000000001</v>
+        <v>1.7606139999999999</v>
       </c>
       <c r="E82" s="72">
-        <v>0.79912499999999997</v>
+        <v>0.81823500000000005</v>
       </c>
       <c r="F82" s="72">
-        <v>2.219147</v>
+        <v>2.4606849999999998</v>
       </c>
       <c r="G82" s="72">
-        <v>2.204793</v>
+        <v>2.0959590000000001</v>
       </c>
       <c r="H82" s="73">
-        <v>7.3521700000000001</v>
+        <v>7.4472480000000001</v>
       </c>
       <c r="I82" s="71">
         <v>17.530967</v>
@@ -6360,28 +6360,28 @@
         <v>7.9534260000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="64"/>
       <c r="B83" s="75" t="s">
         <v>155</v>
       </c>
       <c r="C83" s="76">
-        <v>0.33561299999999999</v>
+        <v>0.33546100000000001</v>
       </c>
       <c r="D83" s="77">
-        <v>0.14049800000000001</v>
+        <v>0.13988400000000001</v>
       </c>
       <c r="E83" s="77">
-        <v>0.28319699999999998</v>
+        <v>0.28206700000000001</v>
       </c>
       <c r="F83" s="77">
-        <v>0.51097099999999995</v>
+        <v>0.51090800000000003</v>
       </c>
       <c r="G83" s="77">
-        <v>0.81859700000000002</v>
+        <v>0.81859000000000004</v>
       </c>
       <c r="H83" s="78">
-        <v>2.088679</v>
+        <v>2.0867119999999999</v>
       </c>
       <c r="I83" s="76">
         <v>4.1826530000000002</v>
@@ -6417,28 +6417,28 @@
         <v>11.996321</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="64"/>
       <c r="B84" s="84" t="s">
         <v>156</v>
       </c>
       <c r="C84" s="85">
-        <v>0.198879</v>
+        <v>0.19755300000000001</v>
       </c>
       <c r="D84" s="86">
-        <v>5.9094670000000002</v>
+        <v>5.9318220000000004</v>
       </c>
       <c r="E84" s="86">
-        <v>0.19453400000000001</v>
+        <v>0.19320599999999999</v>
       </c>
       <c r="F84" s="86">
-        <v>1.5852679999999999</v>
+        <v>1.583286</v>
       </c>
       <c r="G84" s="86">
-        <v>7.6399160000000004</v>
+        <v>7.7685320000000004</v>
       </c>
       <c r="H84" s="87">
-        <v>15.523016</v>
+        <v>15.669418</v>
       </c>
       <c r="I84" s="85">
         <v>26.324221000000001</v>
@@ -6474,7 +6474,7 @@
         <v>6.3041309999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="64"/>
       <c r="B85" s="89" t="s">
         <v>157</v>
@@ -6531,28 +6531,28 @@
         <v>8.1573519999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="64"/>
       <c r="B86" s="70" t="s">
         <v>158</v>
       </c>
       <c r="C86" s="71">
-        <v>1.2845000000000001E-2</v>
+        <v>1.3327E-2</v>
       </c>
       <c r="D86" s="72">
-        <v>1.026659</v>
+        <v>1.039587</v>
       </c>
       <c r="E86" s="72">
-        <v>1.086854</v>
+        <v>1.087318</v>
       </c>
       <c r="F86" s="72">
-        <v>4.6667139999999998</v>
+        <v>4.7706090000000003</v>
       </c>
       <c r="G86" s="72">
-        <v>1.023407</v>
+        <v>0.95809599999999995</v>
       </c>
       <c r="H86" s="73">
-        <v>7.8164790000000002</v>
+        <v>7.8689359999999997</v>
       </c>
       <c r="I86" s="71">
         <v>17.655628</v>
@@ -6588,28 +6588,28 @@
         <v>9.5701070000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="64"/>
       <c r="B87" s="70" t="s">
         <v>159</v>
       </c>
       <c r="C87" s="71">
-        <v>0.86217200000000005</v>
+        <v>0.86368100000000003</v>
       </c>
       <c r="D87" s="72">
-        <v>0.26353599999999999</v>
+        <v>0.260017</v>
       </c>
       <c r="E87" s="72">
-        <v>0.47320200000000001</v>
+        <v>0.46596900000000002</v>
       </c>
       <c r="F87" s="72">
-        <v>0.315467</v>
+        <v>0.31593300000000002</v>
       </c>
       <c r="G87" s="72">
-        <v>1.24265</v>
+        <v>1.2412559999999999</v>
       </c>
       <c r="H87" s="73">
-        <v>3.1541239999999999</v>
+        <v>3.143942</v>
       </c>
       <c r="I87" s="71">
         <v>16.759343000000001</v>
@@ -6645,28 +6645,28 @@
         <v>10.215156</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="64"/>
       <c r="B88" s="70" t="s">
         <v>160</v>
       </c>
       <c r="C88" s="71">
-        <v>1.240459</v>
+        <v>1.2392069999999999</v>
       </c>
       <c r="D88" s="72">
-        <v>0.46801199999999998</v>
+        <v>0.46784300000000001</v>
       </c>
       <c r="E88" s="72">
-        <v>3.368754</v>
+        <v>3.3722379999999998</v>
       </c>
       <c r="F88" s="72">
-        <v>9.1981409999999997</v>
+        <v>9.2073219999999996</v>
       </c>
       <c r="G88" s="72">
-        <v>1.8738250000000001</v>
+        <v>1.871783</v>
       </c>
       <c r="H88" s="73">
-        <v>16.149191999999999</v>
+        <v>16.158391999999999</v>
       </c>
       <c r="I88" s="71">
         <v>5.7086350000000001</v>
@@ -6702,28 +6702,28 @@
         <v>8.8345749999999992</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="64"/>
       <c r="B89" s="70" t="s">
         <v>161</v>
       </c>
       <c r="C89" s="71">
-        <v>0.463557</v>
+        <v>0.46223900000000001</v>
       </c>
       <c r="D89" s="72">
-        <v>0.196632</v>
+        <v>0.196071</v>
       </c>
       <c r="E89" s="72">
-        <v>0.59925600000000001</v>
+        <v>0.61134200000000005</v>
       </c>
       <c r="F89" s="72">
-        <v>1.8938790000000001</v>
+        <v>1.917108</v>
       </c>
       <c r="G89" s="72">
-        <v>1.3130580000000001</v>
+        <v>1.3170040000000001</v>
       </c>
       <c r="H89" s="73">
-        <v>4.4663659999999998</v>
+        <v>4.503749</v>
       </c>
       <c r="I89" s="71">
         <v>7.7352920000000003</v>
@@ -6759,28 +6759,28 @@
         <v>11.757769</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="75" t="s">
         <v>162</v>
       </c>
       <c r="C90" s="76">
-        <v>0.124934</v>
+        <v>0.124586</v>
       </c>
       <c r="D90" s="77">
-        <v>7.5398000000000007E-2</v>
+        <v>7.5142E-2</v>
       </c>
       <c r="E90" s="77">
-        <v>0.80441799999999997</v>
+        <v>0.80691199999999996</v>
       </c>
       <c r="F90" s="77">
-        <v>1.905087</v>
+        <v>1.9680880000000001</v>
       </c>
       <c r="G90" s="77">
-        <v>0.60024100000000002</v>
+        <v>0.59853400000000001</v>
       </c>
       <c r="H90" s="78">
-        <v>3.5098919999999998</v>
+        <v>3.5730729999999999</v>
       </c>
       <c r="I90" s="76">
         <v>1.5189250000000001</v>
@@ -6816,28 +6816,28 @@
         <v>12.193127</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="64"/>
       <c r="B91" s="84" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="85">
-        <v>0.110817</v>
+        <v>0.110486</v>
       </c>
       <c r="D91" s="86">
-        <v>4.3559270000000003</v>
+        <v>4.3705410000000002</v>
       </c>
       <c r="E91" s="86">
-        <v>0.26553199999999999</v>
+        <v>0.264733</v>
       </c>
       <c r="F91" s="86">
-        <v>5.038856</v>
+        <v>5.0276810000000003</v>
       </c>
       <c r="G91" s="86">
-        <v>5.0631849999999998</v>
+        <v>5.1283099999999999</v>
       </c>
       <c r="H91" s="87">
-        <v>14.831250000000001</v>
+        <v>14.898704</v>
       </c>
       <c r="I91" s="85">
         <v>25.282852999999999</v>
@@ -6873,28 +6873,28 @@
         <v>6.7412070000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="64"/>
       <c r="B92" s="70" t="s">
         <v>164</v>
       </c>
       <c r="C92" s="71">
-        <v>1.6875999999999999E-2</v>
+        <v>1.6351000000000001E-2</v>
       </c>
       <c r="D92" s="72">
-        <v>0.50590900000000005</v>
+        <v>0.477238</v>
       </c>
       <c r="E92" s="72">
-        <v>1.052181</v>
+        <v>0.99463699999999999</v>
       </c>
       <c r="F92" s="72">
-        <v>5.6932000000000003E-2</v>
+        <v>5.6831E-2</v>
       </c>
       <c r="G92" s="72">
-        <v>0.39155400000000001</v>
+        <v>0.363871</v>
       </c>
       <c r="H92" s="73">
-        <v>2.0229330000000001</v>
+        <v>1.9084159999999999</v>
       </c>
       <c r="I92" s="71">
         <v>15.042097999999999</v>
@@ -6930,7 +6930,7 @@
         <v>8.8237590000000008</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="64"/>
       <c r="B93" s="70" t="s">
         <v>165</v>
@@ -6987,7 +6987,7 @@
         <v>8.1254919999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="64"/>
       <c r="B94" s="70" t="s">
         <v>166</v>
@@ -6996,19 +6996,19 @@
         <v>0</v>
       </c>
       <c r="D94" s="72">
-        <v>0.165266</v>
+        <v>0.16491700000000001</v>
       </c>
       <c r="E94" s="72">
-        <v>0.66389399999999998</v>
+        <v>0.66266599999999998</v>
       </c>
       <c r="F94" s="72">
-        <v>0.61376500000000001</v>
+        <v>0.61307100000000003</v>
       </c>
       <c r="G94" s="72">
-        <v>0.985178</v>
+        <v>0.98255899999999996</v>
       </c>
       <c r="H94" s="73">
-        <v>2.4273669999999998</v>
+        <v>2.422479</v>
       </c>
       <c r="I94" s="71">
         <v>2.8262489999999998</v>
@@ -7044,28 +7044,28 @@
         <v>7.3990840000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="64"/>
       <c r="B95" s="70" t="s">
         <v>167</v>
       </c>
       <c r="C95" s="71">
-        <v>6.5959000000000004E-2</v>
+        <v>7.3090000000000002E-2</v>
       </c>
       <c r="D95" s="72">
-        <v>5.0634649999999999</v>
+        <v>4.9610279999999998</v>
       </c>
       <c r="E95" s="72">
-        <v>3.9519999999999998E-3</v>
+        <v>3.8279999999999998E-3</v>
       </c>
       <c r="F95" s="72">
-        <v>0.82306599999999996</v>
+        <v>0.80238900000000002</v>
       </c>
       <c r="G95" s="72">
-        <v>4.4179380000000004</v>
+        <v>4.4098350000000002</v>
       </c>
       <c r="H95" s="73">
-        <v>10.37438</v>
+        <v>10.250170000000001</v>
       </c>
       <c r="I95" s="71">
         <v>26.934172</v>
@@ -7101,7 +7101,7 @@
         <v>7.2087450000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
       <c r="B96" s="75" t="s">
         <v>168</v>
@@ -7158,28 +7158,28 @@
         <v>9.5181769999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="64"/>
       <c r="B97" s="84" t="s">
         <v>169</v>
       </c>
       <c r="C97" s="85">
-        <v>6.1616999999999998E-2</v>
+        <v>5.6774999999999999E-2</v>
       </c>
       <c r="D97" s="86">
-        <v>2.8301470000000002</v>
+        <v>2.656631</v>
       </c>
       <c r="E97" s="86">
-        <v>0.68528299999999998</v>
+        <v>0.72939600000000004</v>
       </c>
       <c r="F97" s="86">
-        <v>6.4325950000000001</v>
+        <v>6.3631120000000001</v>
       </c>
       <c r="G97" s="86">
-        <v>2.7010839999999998</v>
+        <v>2.466046</v>
       </c>
       <c r="H97" s="87">
-        <v>12.706716</v>
+        <v>12.268167999999999</v>
       </c>
       <c r="I97" s="85">
         <v>22.554725999999999</v>
@@ -7215,28 +7215,28 @@
         <v>6.6466839999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
       <c r="B98" s="75" t="s">
         <v>170</v>
       </c>
       <c r="C98" s="76">
-        <v>4.1348999999999997E-2</v>
+        <v>4.0826000000000001E-2</v>
       </c>
       <c r="D98" s="77">
-        <v>0.26138</v>
+        <v>0.245892</v>
       </c>
       <c r="E98" s="77">
-        <v>2.860239</v>
+        <v>2.9416609999999999</v>
       </c>
       <c r="F98" s="77">
-        <v>9.0397040000000004</v>
+        <v>9.2350999999999992</v>
       </c>
       <c r="G98" s="77">
-        <v>1.1998040000000001</v>
+        <v>1.2278309999999999</v>
       </c>
       <c r="H98" s="78">
-        <v>13.402016</v>
+        <v>13.690860000000001</v>
       </c>
       <c r="I98" s="76">
         <v>13.403382000000001</v>
@@ -7272,7 +7272,7 @@
         <v>10.217364</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="90"/>
       <c r="B99" s="91"/>
       <c r="C99" s="81"/>
@@ -7293,7 +7293,7 @@
       <c r="R99" s="81"/>
       <c r="S99" s="81"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="R100" s="92"/>
       <c r="S100" s="92"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>172</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="R101" s="92"/>
       <c r="S101" s="92"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>173</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="R102" s="92"/>
       <c r="S102" s="92"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>174</v>
       </c>
@@ -7381,7 +7381,7 @@
       <c r="R103" s="92"/>
       <c r="S103" s="92"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="R104" s="92"/>
       <c r="S104" s="92"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
       <c r="E105" s="92"/>
@@ -7422,7 +7422,7 @@
       <c r="R105" s="92"/>
       <c r="S105" s="92"/>
     </row>
-    <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="93"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -7442,7 +7442,7 @@
       <c r="R106" s="92"/>
       <c r="S106" s="92"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B107" s="94" t="s">
         <v>176</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="R107" s="92"/>
       <c r="S107" s="92"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
@@ -7484,7 +7484,7 @@
       <c r="R108" s="92"/>
       <c r="S108" s="92"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B109" s="97" t="s">
         <v>178</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="R109" s="92"/>
       <c r="S109" s="92"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B110" s="97" t="s">
         <v>179</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="R110" s="92"/>
       <c r="S110" s="92"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B111" s="97" t="s">
         <v>180</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="R111" s="92"/>
       <c r="S111" s="92"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>177</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="R112" s="92"/>
       <c r="S112" s="92"/>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B113" s="95"/>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
@@ -7594,12 +7594,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E89B3830-5355-448D-B0E3-52CD3C43A0AD}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{338CBA4A-F01E-4233-86FF-000ADD9C3AC2}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{C664F970-0BC9-4176-8166-B1BA7D2131A8}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8910FDEE-52FE-41FE-ACD8-572414D88A8F}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{D4A2F01A-C05E-42B5-8D47-AA86679058B4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{F9993F92-E51E-4452-96B7-2EF929F39652}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7C2DC8AA-DCDA-4115-909C-ED2D1C4C4A9B}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{155BB6CC-E68C-449B-894C-640C2A7E6EC9}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{002B4732-CA62-46D2-82CA-C9CEDF4CFA50}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1C87DC5F-89A2-4404-987F-DE80BAE06FE2}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{FAAD0A42-473C-475F-BB89-68D6EC9B5AC5}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{BFB446D6-1FFC-42D9-8B2C-CB71DEE613C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab08.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab08.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B2E8B1-8561-4BB6-A22B-A67BE65F8177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E17D354-E791-4D83-8B17-E5B30B3A55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{8D19736C-A662-4DED-B962-CF33D0A521C4}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{A61CD6A5-7679-42B0-9DB8-4BBF7477E5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab08" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$P$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$P$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab08'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab08'!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,72 +37,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
-  <si>
-    <t>Table 8: Sectoral breakdown of the economy</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Coal rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Forest rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Natural gas rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Oil rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Mineral rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Total natural resources rents (% of GDP), 2021</t>
-  </si>
-  <si>
-    <t>Agriculture, hunting, forestry, fishing: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Mining, Manufacturing, Utilities: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Construction: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Wholesale, retail trade, restaurants and hotels: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Transport, storage and communication: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Other activities: value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Manufacturing (included in industry): value added (% of GDP), 2022</t>
-  </si>
-  <si>
-    <t>Employment in agriculture as a % of total, 2021</t>
-  </si>
-  <si>
-    <t>Employment in industry as a % of total, 2021</t>
-  </si>
-  <si>
-    <t>Employment in services as a % of total, 2021</t>
-  </si>
-  <si>
-    <t>Employment in manufacturing (incl. in industry) as a % of total, 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="183">
+  <si>
+    <t>Tableau 8 : Ventilation sectorielle de l'économie</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Bénéfices tirés du charbon (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Bénéfices tirés des forêts (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Bénéfices tirés du gaz (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Bénéfices tirés du pétrole (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Bénéfices tirés des minéraux (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Total des bénéfices tirés des ressources naturelles (% du PIB), 2021</t>
+  </si>
+  <si>
+    <t>Agriculture, chasse, sylviculture, pêche: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Mines, fabrication, services publics: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Construction: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Commerce de gros, commerce de détail, restaurants et hôtels: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Transport, stockage et communication: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Autres activités: valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Fabrication (incluse dans l'industrie): valeur ajoutée (millions de dollars US), 2022</t>
+  </si>
+  <si>
+    <t>Emploi dans l'agriculture en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans l'industrie en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans les services en % du total, 2021</t>
+  </si>
+  <si>
+    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total, 2021</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -138,19 +138,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -159,7 +159,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -171,58 +174,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -234,7 +237,7 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>..</t>
@@ -243,7 +246,7 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -261,7 +264,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -279,79 +282,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -363,7 +366,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -375,7 +378,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -387,13 +390,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -423,7 +426,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -438,22 +441,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -462,19 +465,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -492,104 +495,109 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organisation (retrieved 09/09/2025), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in January 2025), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Organisation internationale du travail (consulté le 09/09/2025), Division de statistique des Nations Unies – Comptes nationaux (ensemble de données « Analyse des principaux agrégats » mis en ligne en janvier 2025), Indicateurs du développement mondial de la Banque mondiale (base de données et publications provenant des banques centrales, des agences nationales de statistiques et des bureaux-pays de la Banque mondiale – 03/07/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,16 +729,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1311,8 +1309,8 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1595,23 +1593,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BD39FD-B39D-44CD-A28B-32D8521C6AB3}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ECCF43-5E2A-4ECB-92FF-4D8914318986}">
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.1796875" style="96" customWidth="1"/>
-    <col min="16" max="19" width="12.453125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14.1796875" style="96" customWidth="1"/>
+    <col min="10" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="19" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1633,7 +1629,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1692,7 +1688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1718,25 +1714,25 @@
         <v>29.967434999999998</v>
       </c>
       <c r="I3" s="12">
-        <v>13.724958000000001</v>
+        <v>15565.418357</v>
       </c>
       <c r="J3" s="13">
-        <v>39.041649</v>
+        <v>44276.974568999998</v>
       </c>
       <c r="K3" s="13">
-        <v>6.0962170000000002</v>
+        <v>6913.6943439999995</v>
       </c>
       <c r="L3" s="13">
-        <v>22.302886000000001</v>
+        <v>25293.612131999998</v>
       </c>
       <c r="M3" s="13">
-        <v>2.1913269999999998</v>
+        <v>2485.1752919999999</v>
       </c>
       <c r="N3" s="14">
-        <v>16.642963000000002</v>
+        <v>18874.716042</v>
       </c>
       <c r="O3" s="15">
-        <v>7.442812</v>
+        <v>8440.8624180000006</v>
       </c>
       <c r="P3" s="12">
         <v>56.707509999999999</v>
@@ -1750,8 +1746,29 @@
       <c r="S3" s="14">
         <v>2.0982479999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3">
+        <v>13.724958000000001</v>
+      </c>
+      <c r="U3">
+        <v>39.041649</v>
+      </c>
+      <c r="V3">
+        <v>6.0962170000000002</v>
+      </c>
+      <c r="W3">
+        <v>22.302886000000001</v>
+      </c>
+      <c r="X3">
+        <v>2.1913269999999998</v>
+      </c>
+      <c r="Y3">
+        <v>16.642963000000002</v>
+      </c>
+      <c r="Z3">
+        <v>7.442812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1777,25 +1794,25 @@
         <v>1.0385340000000001</v>
       </c>
       <c r="I4" s="17">
-        <v>1.654765</v>
+        <v>321.03146299999997</v>
       </c>
       <c r="J4" s="18">
-        <v>28.220296000000001</v>
+        <v>5474.8572430000004</v>
       </c>
       <c r="K4" s="18">
-        <v>11.014495999999999</v>
+        <v>2136.8590479999998</v>
       </c>
       <c r="L4" s="18">
-        <v>14.917766</v>
+        <v>2894.1099389999999</v>
       </c>
       <c r="M4" s="18">
-        <v>4.9118120000000003</v>
+        <v>952.91233299999999</v>
       </c>
       <c r="N4" s="19">
-        <v>39.280866000000003</v>
+        <v>7620.6548510000002</v>
       </c>
       <c r="O4" s="20">
-        <v>5.6406450000000001</v>
+        <v>1094.309139</v>
       </c>
       <c r="P4" s="17">
         <v>17.593399000000002</v>
@@ -1809,8 +1826,29 @@
       <c r="S4" s="19">
         <v>7.0538040000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>1.654765</v>
+      </c>
+      <c r="U4">
+        <v>28.220296000000001</v>
+      </c>
+      <c r="V4">
+        <v>11.014495999999999</v>
+      </c>
+      <c r="W4">
+        <v>14.917766</v>
+      </c>
+      <c r="X4">
+        <v>4.9118120000000003</v>
+      </c>
+      <c r="Y4">
+        <v>39.280866000000003</v>
+      </c>
+      <c r="Z4">
+        <v>5.6406450000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1836,25 +1874,25 @@
         <v>2.999152</v>
       </c>
       <c r="I5" s="17">
-        <v>9.0347600000000003</v>
+        <v>411.354107</v>
       </c>
       <c r="J5" s="22">
-        <v>31.877464</v>
+        <v>1451.386266</v>
       </c>
       <c r="K5" s="22">
-        <v>3.2921969999999998</v>
+        <v>149.89428899999999</v>
       </c>
       <c r="L5" s="22">
-        <v>17.370085</v>
+        <v>790.86287800000002</v>
       </c>
       <c r="M5" s="22">
-        <v>7.6191259999999996</v>
+        <v>346.90008599999999</v>
       </c>
       <c r="N5" s="23">
-        <v>30.806367000000002</v>
+        <v>1402.619029</v>
       </c>
       <c r="O5" s="24">
-        <v>29.389713</v>
+        <v>1338.11851</v>
       </c>
       <c r="P5" s="17">
         <v>14.026346</v>
@@ -1868,8 +1906,29 @@
       <c r="S5" s="23">
         <v>12.307411999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>9.0347600000000003</v>
+      </c>
+      <c r="U5">
+        <v>31.877464</v>
+      </c>
+      <c r="V5">
+        <v>3.2921969999999998</v>
+      </c>
+      <c r="W5">
+        <v>17.370085</v>
+      </c>
+      <c r="X5">
+        <v>7.6191259999999996</v>
+      </c>
+      <c r="Y5">
+        <v>30.806367000000002</v>
+      </c>
+      <c r="Z5">
+        <v>29.389713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -1895,25 +1954,25 @@
         <v>4.317882</v>
       </c>
       <c r="I6" s="17">
-        <v>6.8791359999999999</v>
+        <v>140.14147399999999</v>
       </c>
       <c r="J6" s="22">
-        <v>32.346165999999997</v>
+        <v>658.95471999999995</v>
       </c>
       <c r="K6" s="22">
-        <v>2.898558</v>
+        <v>59.049306999999999</v>
       </c>
       <c r="L6" s="22">
-        <v>8.9168769999999995</v>
+        <v>181.65423000000001</v>
       </c>
       <c r="M6" s="22">
-        <v>4.7453950000000003</v>
+        <v>96.672993000000005</v>
       </c>
       <c r="N6" s="23">
-        <v>44.213867</v>
+        <v>900.72300199999995</v>
       </c>
       <c r="O6" s="24">
-        <v>18.822806</v>
+        <v>383.45739600000002</v>
       </c>
       <c r="P6" s="17">
         <v>30.110937</v>
@@ -1927,8 +1986,29 @@
       <c r="S6" s="23">
         <v>22.884253000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6">
+        <v>6.8791359999999999</v>
+      </c>
+      <c r="U6">
+        <v>32.346165999999997</v>
+      </c>
+      <c r="V6">
+        <v>2.898558</v>
+      </c>
+      <c r="W6">
+        <v>8.9168769999999995</v>
+      </c>
+      <c r="X6">
+        <v>4.7453950000000003</v>
+      </c>
+      <c r="Y6">
+        <v>44.213867</v>
+      </c>
+      <c r="Z6">
+        <v>18.822806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1954,25 +2034,25 @@
         <v>4.2225039999999998</v>
       </c>
       <c r="I7" s="17">
-        <v>29.455487000000002</v>
+        <v>3452.3247649999998</v>
       </c>
       <c r="J7" s="22">
-        <v>14.662820999999999</v>
+        <v>1718.5531590000001</v>
       </c>
       <c r="K7" s="22">
-        <v>3.3270590000000002</v>
+        <v>389.94729799999999</v>
       </c>
       <c r="L7" s="22">
-        <v>13.067314</v>
+        <v>1531.552101</v>
       </c>
       <c r="M7" s="22">
-        <v>10.489974999999999</v>
+        <v>1229.4755849999999</v>
       </c>
       <c r="N7" s="23">
-        <v>28.702755</v>
+        <v>3364.1009949999998</v>
       </c>
       <c r="O7" s="24">
-        <v>11.295673000000001</v>
+        <v>1323.907213</v>
       </c>
       <c r="P7" s="17">
         <v>62.386929000000002</v>
@@ -1986,8 +2066,29 @@
       <c r="S7" s="23">
         <v>3.9303499999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <v>29.455487000000002</v>
+      </c>
+      <c r="U7">
+        <v>14.662820999999999</v>
+      </c>
+      <c r="V7">
+        <v>3.3270590000000002</v>
+      </c>
+      <c r="W7">
+        <v>13.067314</v>
+      </c>
+      <c r="X7">
+        <v>10.489974999999999</v>
+      </c>
+      <c r="Y7">
+        <v>28.702755</v>
+      </c>
+      <c r="Z7">
+        <v>11.295673000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2013,25 +2114,25 @@
         <v>14.907477</v>
       </c>
       <c r="I8" s="17">
-        <v>29.067135</v>
+        <v>4841.5898100000004</v>
       </c>
       <c r="J8" s="22">
-        <v>24.945404</v>
+        <v>4155.0505039999998</v>
       </c>
       <c r="K8" s="22">
-        <v>1.4046799999999999</v>
+        <v>233.971541</v>
       </c>
       <c r="L8" s="22">
-        <v>10.655768999999999</v>
+        <v>1774.8863260000001</v>
       </c>
       <c r="M8" s="22">
-        <v>9.6805040000000009</v>
+        <v>1612.4406489999999</v>
       </c>
       <c r="N8" s="23">
-        <v>24.246507999999999</v>
+        <v>4038.6383230000001</v>
       </c>
       <c r="O8" s="24">
-        <v>9.2263940000000009</v>
+        <v>1536.801434</v>
       </c>
       <c r="P8" s="17">
         <v>70.354123999999999</v>
@@ -2045,8 +2146,29 @@
       <c r="S8" s="23">
         <v>4.7449969999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8">
+        <v>29.067135</v>
+      </c>
+      <c r="U8">
+        <v>24.945404</v>
+      </c>
+      <c r="V8">
+        <v>1.4046799999999999</v>
+      </c>
+      <c r="W8">
+        <v>10.655768999999999</v>
+      </c>
+      <c r="X8">
+        <v>9.6805040000000009</v>
+      </c>
+      <c r="Y8">
+        <v>24.246507999999999</v>
+      </c>
+      <c r="Z8">
+        <v>9.2263940000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2072,25 +2194,25 @@
         <v>4.0305809999999997</v>
       </c>
       <c r="I9" s="25">
-        <v>9.5939429999999994</v>
+        <v>1100.845517</v>
       </c>
       <c r="J9" s="22">
-        <v>28.085229000000002</v>
+        <v>3222.6061479999998</v>
       </c>
       <c r="K9" s="22">
-        <v>1.566451</v>
+        <v>179.74049400000001</v>
       </c>
       <c r="L9" s="22">
-        <v>14.085190000000001</v>
+        <v>1616.1882989999999</v>
       </c>
       <c r="M9" s="22">
-        <v>4.7987390000000003</v>
+        <v>550.62553500000001</v>
       </c>
       <c r="N9" s="23">
-        <v>41.870449000000001</v>
+        <v>4804.3746950000004</v>
       </c>
       <c r="O9" s="24">
-        <v>12.167242999999999</v>
+        <v>1396.1157430000001</v>
       </c>
       <c r="P9" s="25">
         <v>22.194849000000001</v>
@@ -2104,8 +2226,29 @@
       <c r="S9" s="23">
         <v>7.8086739999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9">
+        <v>9.5939429999999994</v>
+      </c>
+      <c r="U9">
+        <v>28.085229000000002</v>
+      </c>
+      <c r="V9">
+        <v>1.566451</v>
+      </c>
+      <c r="W9">
+        <v>14.085190000000001</v>
+      </c>
+      <c r="X9">
+        <v>4.7987390000000003</v>
+      </c>
+      <c r="Y9">
+        <v>41.870449000000001</v>
+      </c>
+      <c r="Z9">
+        <v>12.167242999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2131,25 +2274,25 @@
         <v>7.3285790000000004</v>
       </c>
       <c r="I10" s="25">
-        <v>3.1516109999999999</v>
+        <v>11470.279742999999</v>
       </c>
       <c r="J10" s="22">
-        <v>25.016119</v>
+        <v>91046.098123000003</v>
       </c>
       <c r="K10" s="22">
-        <v>2.462742</v>
+        <v>8963.1410419999993</v>
       </c>
       <c r="L10" s="22">
-        <v>13.565018999999999</v>
+        <v>49369.849890999998</v>
       </c>
       <c r="M10" s="22">
-        <v>7.5830099999999998</v>
+        <v>27598.342895000002</v>
       </c>
       <c r="N10" s="23">
-        <v>48.221499999999999</v>
+        <v>175502.01768300001</v>
       </c>
       <c r="O10" s="24">
-        <v>13.659682999999999</v>
+        <v>49714.379454000002</v>
       </c>
       <c r="P10" s="25">
         <v>21.277691999999998</v>
@@ -2163,8 +2306,29 @@
       <c r="S10" s="23">
         <v>8.0780279999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10">
+        <v>3.1516109999999999</v>
+      </c>
+      <c r="U10">
+        <v>25.016119</v>
+      </c>
+      <c r="V10">
+        <v>2.462742</v>
+      </c>
+      <c r="W10">
+        <v>13.565018999999999</v>
+      </c>
+      <c r="X10">
+        <v>7.5830099999999998</v>
+      </c>
+      <c r="Y10">
+        <v>48.221499999999999</v>
+      </c>
+      <c r="Z10">
+        <v>13.659682999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -2190,25 +2354,25 @@
         <v>35.264147999999999</v>
       </c>
       <c r="I11" s="17">
-        <v>3.5591710000000001</v>
+        <v>1009.309657</v>
       </c>
       <c r="J11" s="18">
-        <v>24.112148999999999</v>
+        <v>6837.7225109999999</v>
       </c>
       <c r="K11" s="18">
-        <v>11.423249</v>
+        <v>3239.4045430000001</v>
       </c>
       <c r="L11" s="18">
-        <v>19.5136</v>
+        <v>5533.6662239999996</v>
       </c>
       <c r="M11" s="18">
-        <v>18.877371</v>
+        <v>5353.2443590000003</v>
       </c>
       <c r="N11" s="19">
-        <v>22.51446</v>
+        <v>6384.6499800000001</v>
       </c>
       <c r="O11" s="20">
-        <v>8.4858840000000004</v>
+        <v>2406.4267460000001</v>
       </c>
       <c r="P11" s="17">
         <v>57.788508</v>
@@ -2222,8 +2386,29 @@
       <c r="S11" s="19">
         <v>5.7778450000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T11">
+        <v>3.5591710000000001</v>
+      </c>
+      <c r="U11">
+        <v>24.112148999999999</v>
+      </c>
+      <c r="V11">
+        <v>11.423249</v>
+      </c>
+      <c r="W11">
+        <v>19.5136</v>
+      </c>
+      <c r="X11">
+        <v>18.877371</v>
+      </c>
+      <c r="Y11">
+        <v>22.51446</v>
+      </c>
+      <c r="Z11">
+        <v>8.4858840000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
@@ -2249,25 +2434,25 @@
         <v>6.3984519999999998</v>
       </c>
       <c r="I12" s="27">
-        <v>8.1085639999999994</v>
+        <v>1893.9323750000001</v>
       </c>
       <c r="J12" s="28">
-        <v>39.713208999999999</v>
+        <v>9275.888379</v>
       </c>
       <c r="K12" s="28">
-        <v>5.1961209999999998</v>
+        <v>1213.6677219999999</v>
       </c>
       <c r="L12" s="28">
-        <v>17.225185</v>
+        <v>4023.3186949999999</v>
       </c>
       <c r="M12" s="28">
-        <v>6.7493780000000001</v>
+        <v>1576.4647110000001</v>
       </c>
       <c r="N12" s="29">
-        <v>23.007542999999998</v>
+        <v>5373.9148720000003</v>
       </c>
       <c r="O12" s="30">
-        <v>23.244980999999999</v>
+        <v>5429.3736669999998</v>
       </c>
       <c r="P12" s="27">
         <v>53.622532999999997</v>
@@ -2281,11 +2466,34 @@
       <c r="S12" s="29">
         <v>5.5593300000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+      <c r="T12">
+        <v>8.1085639999999994</v>
+      </c>
+      <c r="U12">
+        <v>39.713208999999999</v>
+      </c>
+      <c r="V12">
+        <v>5.1961209999999998</v>
+      </c>
+      <c r="W12">
+        <v>17.225185</v>
+      </c>
+      <c r="X12">
+        <v>6.7493780000000001</v>
+      </c>
+      <c r="Y12">
+        <v>23.007542999999998</v>
+      </c>
+      <c r="Z12">
+        <v>23.244980999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="33">
         <v>1.5503800000000001</v>
@@ -2306,25 +2514,25 @@
         <v>13.114608</v>
       </c>
       <c r="I13" s="33">
-        <v>6.7582969999999998</v>
+        <v>40206.227268000002</v>
       </c>
       <c r="J13" s="34">
-        <v>28.259103</v>
+        <v>168118.09162200001</v>
       </c>
       <c r="K13" s="34">
-        <v>3.946666</v>
+        <v>23479.369628</v>
       </c>
       <c r="L13" s="34">
-        <v>15.634074</v>
+        <v>93009.700716000007</v>
       </c>
       <c r="M13" s="34">
-        <v>7.0265740000000001</v>
+        <v>41802.254435000003</v>
       </c>
       <c r="N13" s="35">
-        <v>38.369481999999998</v>
+        <v>228266.409472</v>
       </c>
       <c r="O13" s="36">
-        <v>12.281344000000001</v>
+        <v>73063.751722000001</v>
       </c>
       <c r="P13" s="33">
         <v>40.606282999999998</v>
@@ -2338,13 +2546,34 @@
       <c r="S13" s="35">
         <v>8.0242939999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13">
+        <v>6.7582969999999998</v>
+      </c>
+      <c r="U13">
+        <v>28.259103</v>
+      </c>
+      <c r="V13">
+        <v>3.946666</v>
+      </c>
+      <c r="W13">
+        <v>15.634074</v>
+      </c>
+      <c r="X13">
+        <v>7.0265740000000001</v>
+      </c>
+      <c r="Y13">
+        <v>38.369481999999998</v>
+      </c>
+      <c r="Z13">
+        <v>12.281344000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="25">
         <v>0</v>
@@ -2365,25 +2594,25 @@
         <v>13.957034</v>
       </c>
       <c r="I14" s="25">
-        <v>36.454304999999998</v>
+        <v>1429.1718820000001</v>
       </c>
       <c r="J14" s="22">
-        <v>15.100606000000001</v>
+        <v>592.011347</v>
       </c>
       <c r="K14" s="22">
-        <v>3.8781599999999998</v>
+        <v>152.04122100000001</v>
       </c>
       <c r="L14" s="22">
-        <v>5.8031839999999999</v>
+        <v>227.51077100000001</v>
       </c>
       <c r="M14" s="22">
-        <v>4.3140130000000001</v>
+        <v>169.12860000000001</v>
       </c>
       <c r="N14" s="23">
-        <v>34.629686999999997</v>
+        <v>1357.638698</v>
       </c>
       <c r="O14" s="24">
-        <v>13.887313000000001</v>
+        <v>544.44483200000002</v>
       </c>
       <c r="P14" s="25">
         <v>85.4298</v>
@@ -2397,13 +2626,34 @@
       <c r="S14" s="23">
         <v>1.169753</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14">
+        <v>36.454304999999998</v>
+      </c>
+      <c r="U14">
+        <v>15.100606000000001</v>
+      </c>
+      <c r="V14">
+        <v>3.8781599999999998</v>
+      </c>
+      <c r="W14">
+        <v>5.8031839999999999</v>
+      </c>
+      <c r="X14">
+        <v>4.3140130000000001</v>
+      </c>
+      <c r="Y14">
+        <v>34.629686999999997</v>
+      </c>
+      <c r="Z14">
+        <v>13.887313000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
@@ -2424,25 +2674,25 @@
         <v>5.5259830000000001</v>
       </c>
       <c r="I15" s="25">
-        <v>17.776457000000001</v>
+        <v>7337.9219489999996</v>
       </c>
       <c r="J15" s="22">
-        <v>22.483601</v>
+        <v>9280.9779010000002</v>
       </c>
       <c r="K15" s="22">
-        <v>6.6634039999999999</v>
+        <v>2750.5784640000002</v>
       </c>
       <c r="L15" s="22">
-        <v>17.576443000000001</v>
+        <v>7255.3581020000001</v>
       </c>
       <c r="M15" s="22">
-        <v>12.887553</v>
+        <v>5319.8371029999998</v>
       </c>
       <c r="N15" s="23">
-        <v>22.612931</v>
+        <v>9334.3638449999999</v>
       </c>
       <c r="O15" s="24">
-        <v>14.357564</v>
+        <v>5926.6412920000002</v>
       </c>
       <c r="P15" s="25">
         <v>43.834308</v>
@@ -2456,13 +2706,34 @@
       <c r="S15" s="23">
         <v>9.6803840000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15">
+        <v>17.776457000000001</v>
+      </c>
+      <c r="U15">
+        <v>22.483601</v>
+      </c>
+      <c r="V15">
+        <v>6.6634039999999999</v>
+      </c>
+      <c r="W15">
+        <v>17.576443000000001</v>
+      </c>
+      <c r="X15">
+        <v>12.887553</v>
+      </c>
+      <c r="Y15">
+        <v>22.612931</v>
+      </c>
+      <c r="Z15">
+        <v>14.357564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="25">
         <v>0</v>
@@ -2483,25 +2754,25 @@
         <v>10.260196000000001</v>
       </c>
       <c r="I16" s="25">
-        <v>36.288947999999998</v>
+        <v>862.91560500000003</v>
       </c>
       <c r="J16" s="22">
-        <v>19.294291999999999</v>
+        <v>458.79934400000002</v>
       </c>
       <c r="K16" s="22">
-        <v>1.9049739999999999</v>
+        <v>45.298423999999997</v>
       </c>
       <c r="L16" s="22">
-        <v>18.233205999999999</v>
+        <v>433.56776500000001</v>
       </c>
       <c r="M16" s="22">
-        <v>2.1423969999999999</v>
+        <v>50.944110999999999</v>
       </c>
       <c r="N16" s="23">
-        <v>22.136182999999999</v>
+        <v>526.37673500000005</v>
       </c>
       <c r="O16" s="24">
-        <v>18.378153999999999</v>
+        <v>437.014478</v>
       </c>
       <c r="P16" s="25">
         <v>70.944903999999994</v>
@@ -2515,13 +2786,34 @@
       <c r="S16" s="23">
         <v>4.7022940000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16">
+        <v>36.288947999999998</v>
+      </c>
+      <c r="U16">
+        <v>19.294291999999999</v>
+      </c>
+      <c r="V16">
+        <v>1.9049739999999999</v>
+      </c>
+      <c r="W16">
+        <v>18.233205999999999</v>
+      </c>
+      <c r="X16">
+        <v>2.1423969999999999</v>
+      </c>
+      <c r="Y16">
+        <v>22.136182999999999</v>
+      </c>
+      <c r="Z16">
+        <v>18.378153999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="38">
         <v>0</v>
@@ -2542,25 +2834,25 @@
         <v>21.342931</v>
       </c>
       <c r="I17" s="38">
-        <v>31.493265000000001</v>
+        <v>5203.0318180000004</v>
       </c>
       <c r="J17" s="39">
-        <v>43.555635000000002</v>
+        <v>7195.867287</v>
       </c>
       <c r="K17" s="39">
-        <v>4.1669289999999997</v>
+        <v>688.42222200000003</v>
       </c>
       <c r="L17" s="39">
-        <v>7.424493</v>
+        <v>1226.607366</v>
       </c>
       <c r="M17" s="39">
-        <v>2.6252749999999998</v>
+        <v>433.72416800000002</v>
       </c>
       <c r="N17" s="40">
-        <v>10.734403</v>
+        <v>1773.4407550000001</v>
       </c>
       <c r="O17" s="41">
-        <v>14.282047</v>
+        <v>2359.5503170000002</v>
       </c>
       <c r="P17" s="38">
         <v>69.836922999999999</v>
@@ -2574,13 +2866,34 @@
       <c r="S17" s="40">
         <v>7.3764349999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <v>31.493265000000001</v>
+      </c>
+      <c r="U17">
+        <v>43.555635000000002</v>
+      </c>
+      <c r="V17">
+        <v>4.1669289999999997</v>
+      </c>
+      <c r="W17">
+        <v>7.424493</v>
+      </c>
+      <c r="X17">
+        <v>2.6252749999999998</v>
+      </c>
+      <c r="Y17">
+        <v>10.734403</v>
+      </c>
+      <c r="Z17">
+        <v>14.282047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="38">
         <v>0</v>
@@ -2601,25 +2914,25 @@
         <v>37.712547999999998</v>
       </c>
       <c r="I18" s="38">
-        <v>8.5007570000000001</v>
+        <v>1271.99144</v>
       </c>
       <c r="J18" s="39">
-        <v>49.613205999999998</v>
+        <v>7423.758914</v>
       </c>
       <c r="K18" s="39">
-        <v>2.4421460000000002</v>
+        <v>365.42495500000001</v>
       </c>
       <c r="L18" s="39">
-        <v>12.542403</v>
+        <v>1876.7538649999999</v>
       </c>
       <c r="M18" s="39">
-        <v>5.5746919999999998</v>
+        <v>834.15638000000001</v>
       </c>
       <c r="N18" s="40">
-        <v>21.326795000000001</v>
+        <v>3191.1863389999999</v>
       </c>
       <c r="O18" s="41">
-        <v>14.154076999999999</v>
+        <v>2117.9130500000001</v>
       </c>
       <c r="P18" s="38">
         <v>31.182435000000002</v>
@@ -2633,13 +2946,34 @@
       <c r="S18" s="40">
         <v>18.103991000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <v>8.5007570000000001</v>
+      </c>
+      <c r="U18">
+        <v>49.613205999999998</v>
+      </c>
+      <c r="V18">
+        <v>2.4421460000000002</v>
+      </c>
+      <c r="W18">
+        <v>12.542403</v>
+      </c>
+      <c r="X18">
+        <v>5.5746919999999998</v>
+      </c>
+      <c r="Y18">
+        <v>21.326795000000001</v>
+      </c>
+      <c r="Z18">
+        <v>14.154076999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="17">
         <v>0</v>
@@ -2660,25 +2994,25 @@
         <v>38.827266999999999</v>
       </c>
       <c r="I19" s="17">
-        <v>17.914952</v>
+        <v>10860.173785999999</v>
       </c>
       <c r="J19" s="18">
-        <v>48.787474000000003</v>
+        <v>29575.321128</v>
       </c>
       <c r="K19" s="18">
-        <v>0.98783299999999996</v>
+        <v>598.83145400000001</v>
       </c>
       <c r="L19" s="18">
-        <v>11.610127</v>
+        <v>7038.1432949999999</v>
       </c>
       <c r="M19" s="18">
-        <v>8.2781389999999995</v>
+        <v>5018.2681780000003</v>
       </c>
       <c r="N19" s="19">
-        <v>12.421474999999999</v>
+        <v>7529.9885919999997</v>
       </c>
       <c r="O19" s="20">
-        <v>17.188019000000001</v>
+        <v>10419.501848</v>
       </c>
       <c r="P19" s="17">
         <v>56.188377000000003</v>
@@ -2692,13 +3026,34 @@
       <c r="S19" s="19">
         <v>6.4305899999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19">
+        <v>17.914952</v>
+      </c>
+      <c r="U19">
+        <v>48.787474000000003</v>
+      </c>
+      <c r="V19">
+        <v>0.98783299999999996</v>
+      </c>
+      <c r="W19">
+        <v>11.610127</v>
+      </c>
+      <c r="X19">
+        <v>8.2781389999999995</v>
+      </c>
+      <c r="Y19">
+        <v>12.421474999999999</v>
+      </c>
+      <c r="Z19">
+        <v>17.188019000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="38">
         <v>0</v>
@@ -2719,25 +3074,25 @@
         <v>23.500063999999998</v>
       </c>
       <c r="I20" s="38">
-        <v>2.5095459999999998</v>
+        <v>337.340532</v>
       </c>
       <c r="J20" s="39">
-        <v>53.402633999999999</v>
+        <v>7178.538931</v>
       </c>
       <c r="K20" s="39">
-        <v>3.2336480000000001</v>
+        <v>434.67641200000003</v>
       </c>
       <c r="L20" s="39">
-        <v>7.1983790000000001</v>
+        <v>967.62727299999995</v>
       </c>
       <c r="M20" s="39">
-        <v>7.6615169999999999</v>
+        <v>1029.883652</v>
       </c>
       <c r="N20" s="40">
-        <v>25.994275999999999</v>
+        <v>3494.226917</v>
       </c>
       <c r="O20" s="41">
-        <v>25.008679000000001</v>
+        <v>3361.7401009999999</v>
       </c>
       <c r="P20" s="38">
         <v>56.101118999999997</v>
@@ -2751,13 +3106,34 @@
       <c r="S20" s="40">
         <v>7.7753009999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <v>2.5095459999999998</v>
+      </c>
+      <c r="U20">
+        <v>53.402633999999999</v>
+      </c>
+      <c r="V20">
+        <v>3.2336480000000001</v>
+      </c>
+      <c r="W20">
+        <v>7.1983790000000001</v>
+      </c>
+      <c r="X20">
+        <v>7.6615169999999999</v>
+      </c>
+      <c r="Y20">
+        <v>25.994275999999999</v>
+      </c>
+      <c r="Z20">
+        <v>25.008679000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="38">
         <v>0</v>
@@ -2778,25 +3154,25 @@
         <v>18.493344</v>
       </c>
       <c r="I21" s="38">
-        <v>6.4357829999999998</v>
+        <v>1286.7134550000001</v>
       </c>
       <c r="J21" s="39">
-        <v>53.661724</v>
+        <v>10728.650777000001</v>
       </c>
       <c r="K21" s="39">
-        <v>3.2443529999999998</v>
+        <v>648.64722700000004</v>
       </c>
       <c r="L21" s="39">
-        <v>4.4351250000000002</v>
+        <v>886.71967600000005</v>
       </c>
       <c r="M21" s="39">
-        <v>10.574217000000001</v>
+        <v>2114.115417</v>
       </c>
       <c r="N21" s="40">
-        <v>21.648797999999999</v>
+        <v>4328.2693579999996</v>
       </c>
       <c r="O21" s="41">
-        <v>7.3916079999999997</v>
+        <v>1477.812688</v>
       </c>
       <c r="P21" s="38">
         <v>29.982153</v>
@@ -2810,13 +3186,34 @@
       <c r="S21" s="40">
         <v>7.465706</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T21">
+        <v>6.4357829999999998</v>
+      </c>
+      <c r="U21">
+        <v>53.661724</v>
+      </c>
+      <c r="V21">
+        <v>3.2443529999999998</v>
+      </c>
+      <c r="W21">
+        <v>4.4351250000000002</v>
+      </c>
+      <c r="X21">
+        <v>10.574217000000001</v>
+      </c>
+      <c r="Y21">
+        <v>21.648797999999999</v>
+      </c>
+      <c r="Z21">
+        <v>7.3916079999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="43">
         <v>0</v>
@@ -2837,25 +3234,25 @@
         <v>1.884396</v>
       </c>
       <c r="I22" s="43">
-        <v>13.155613000000001</v>
+        <v>70.373485000000002</v>
       </c>
       <c r="J22" s="44">
-        <v>8.2636559999999992</v>
+        <v>44.204881999999998</v>
       </c>
       <c r="K22" s="44">
-        <v>5.4270290000000001</v>
+        <v>29.030875999999999</v>
       </c>
       <c r="L22" s="44">
-        <v>30.428657999999999</v>
+        <v>162.772403</v>
       </c>
       <c r="M22" s="44">
-        <v>11.239896</v>
+        <v>60.125715999999997</v>
       </c>
       <c r="N22" s="45">
-        <v>31.485147000000001</v>
+        <v>168.42389499999999</v>
       </c>
       <c r="O22" s="46">
-        <v>5.9390770000000002</v>
+        <v>31.769978999999999</v>
       </c>
       <c r="P22" s="43">
         <v>11.65516</v>
@@ -2869,11 +3266,34 @@
       <c r="S22" s="45">
         <v>6.5462910000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
+      <c r="T22">
+        <v>13.155613000000001</v>
+      </c>
+      <c r="U22">
+        <v>8.2636559999999992</v>
+      </c>
+      <c r="V22">
+        <v>5.4270290000000001</v>
+      </c>
+      <c r="W22">
+        <v>30.428657999999999</v>
+      </c>
+      <c r="X22">
+        <v>11.239896</v>
+      </c>
+      <c r="Y22">
+        <v>31.485147000000001</v>
+      </c>
+      <c r="Z22">
+        <v>5.9390770000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="B23" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="33">
         <v>0</v>
@@ -2894,25 +3314,25 @@
         <v>22.831244999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>16.503999</v>
+        <v>28659.633951</v>
       </c>
       <c r="J23" s="34">
-        <v>41.737414999999999</v>
+        <v>72478.130510999996</v>
       </c>
       <c r="K23" s="34">
-        <v>3.289873</v>
+        <v>5712.9512539999996</v>
       </c>
       <c r="L23" s="34">
-        <v>11.560468</v>
+        <v>20075.060515000001</v>
       </c>
       <c r="M23" s="34">
-        <v>8.6553140000000006</v>
+        <v>15030.183325</v>
       </c>
       <c r="N23" s="35">
-        <v>18.257086000000001</v>
+        <v>31703.915133999999</v>
       </c>
       <c r="O23" s="36">
-        <v>15.361923000000001</v>
+        <v>26676.388585000001</v>
       </c>
       <c r="P23" s="33">
         <v>50.572797999999999</v>
@@ -2926,13 +3346,34 @@
       <c r="S23" s="35">
         <v>7.6945269999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23">
+        <v>16.503999</v>
+      </c>
+      <c r="U23">
+        <v>41.737414999999999</v>
+      </c>
+      <c r="V23">
+        <v>3.289873</v>
+      </c>
+      <c r="W23">
+        <v>11.560468</v>
+      </c>
+      <c r="X23">
+        <v>8.6553140000000006</v>
+      </c>
+      <c r="Y23">
+        <v>18.257086000000001</v>
+      </c>
+      <c r="Z23">
+        <v>15.361923000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="48">
         <v>0</v>
@@ -2953,25 +3394,25 @@
         <v>1.6284339999999999</v>
       </c>
       <c r="I24" s="48">
-        <v>36.345036999999998</v>
+        <v>447.55146400000001</v>
       </c>
       <c r="J24" s="49">
-        <v>8.7283089999999994</v>
+        <v>107.480076</v>
       </c>
       <c r="K24" s="49">
-        <v>1.222864</v>
+        <v>15.058298000000001</v>
       </c>
       <c r="L24" s="49">
-        <v>21.346315000000001</v>
+        <v>262.85774199999997</v>
       </c>
       <c r="M24" s="49">
-        <v>5.3701699999999999</v>
+        <v>66.128084000000001</v>
       </c>
       <c r="N24" s="50">
-        <v>26.987306</v>
+        <v>332.32069799999999</v>
       </c>
       <c r="O24" s="51">
-        <v>7.7295059999999998</v>
+        <v>95.180860999999993</v>
       </c>
       <c r="P24" s="48">
         <v>35.212637000000001</v>
@@ -2985,13 +3426,34 @@
       <c r="S24" s="50">
         <v>5.8888990000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <v>36.345036999999998</v>
+      </c>
+      <c r="U24">
+        <v>8.7283089999999994</v>
+      </c>
+      <c r="V24">
+        <v>1.222864</v>
+      </c>
+      <c r="W24">
+        <v>21.346315000000001</v>
+      </c>
+      <c r="X24">
+        <v>5.3701699999999999</v>
+      </c>
+      <c r="Y24">
+        <v>26.987306</v>
+      </c>
+      <c r="Z24">
+        <v>7.7295059999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="25">
         <v>0</v>
@@ -3012,25 +3474,25 @@
         <v>0.27711000000000002</v>
       </c>
       <c r="I25" s="25">
-        <v>1.564986</v>
+        <v>53.601064000000001</v>
       </c>
       <c r="J25" s="22">
-        <v>8.8622099999999993</v>
+        <v>303.53239300000001</v>
       </c>
       <c r="K25" s="22">
-        <v>6.028626</v>
+        <v>206.481605</v>
       </c>
       <c r="L25" s="22">
-        <v>29.593973999999999</v>
+        <v>1013.599244</v>
       </c>
       <c r="M25" s="22">
-        <v>23.128039000000001</v>
+        <v>792.13975600000003</v>
       </c>
       <c r="N25" s="23">
-        <v>30.822164000000001</v>
+        <v>1055.6650099999999</v>
       </c>
       <c r="O25" s="24">
-        <v>3.8687079999999998</v>
+        <v>132.50397599999999</v>
       </c>
       <c r="P25" s="25">
         <v>1.2242930000000001</v>
@@ -3044,52 +3506,73 @@
       <c r="S25" s="23">
         <v>0.25947500000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <v>1.564986</v>
+      </c>
+      <c r="U25">
+        <v>8.8622099999999993</v>
+      </c>
+      <c r="V25">
+        <v>6.028626</v>
+      </c>
+      <c r="W25">
+        <v>29.593973999999999</v>
+      </c>
+      <c r="X25">
+        <v>23.128039000000001</v>
+      </c>
+      <c r="Y25">
+        <v>30.822164000000001</v>
+      </c>
+      <c r="Z25">
+        <v>3.8687079999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I26" s="25">
-        <v>17.269815999999999</v>
+        <v>420.148798</v>
       </c>
       <c r="J26" s="22">
-        <v>15.589046</v>
+        <v>379.25816200000003</v>
       </c>
       <c r="K26" s="22">
-        <v>15.725956999999999</v>
+        <v>382.58900799999998</v>
       </c>
       <c r="L26" s="22">
-        <v>11.392110000000001</v>
+        <v>277.15299700000003</v>
       </c>
       <c r="M26" s="22">
-        <v>12.289339</v>
+        <v>298.98123700000002</v>
       </c>
       <c r="N26" s="23">
-        <v>27.733732</v>
+        <v>674.72021700000005</v>
       </c>
       <c r="O26" s="24">
-        <v>6.0288909999999998</v>
+        <v>146.673902</v>
       </c>
       <c r="P26" s="25">
         <v>61.775818000000001</v>
@@ -3103,13 +3586,34 @@
       <c r="S26" s="23">
         <v>4.9866659999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26">
+        <v>17.269815999999999</v>
+      </c>
+      <c r="U26">
+        <v>15.589046</v>
+      </c>
+      <c r="V26">
+        <v>15.725956999999999</v>
+      </c>
+      <c r="W26">
+        <v>11.392110000000001</v>
+      </c>
+      <c r="X26">
+        <v>12.289339</v>
+      </c>
+      <c r="Y26">
+        <v>27.733732</v>
+      </c>
+      <c r="Z26">
+        <v>6.0288909999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="25">
         <v>1.64E-4</v>
@@ -3130,25 +3634,25 @@
         <v>5.8670730000000004</v>
       </c>
       <c r="I27" s="25">
-        <v>38.841146000000002</v>
+        <v>44779.885738999998</v>
       </c>
       <c r="J27" s="22">
-        <v>5.5400260000000001</v>
+        <v>6387.0857470000001</v>
       </c>
       <c r="K27" s="22">
-        <v>17.901062</v>
+        <v>20638.101130999999</v>
       </c>
       <c r="L27" s="22">
-        <v>15.612176</v>
+        <v>17999.248967</v>
       </c>
       <c r="M27" s="22">
-        <v>4.2192809999999996</v>
+        <v>4864.4013059999997</v>
       </c>
       <c r="N27" s="23">
-        <v>17.886309000000001</v>
+        <v>20621.092616999998</v>
       </c>
       <c r="O27" s="24">
-        <v>4.3761419999999998</v>
+        <v>5045.2462720000003</v>
       </c>
       <c r="P27" s="25">
         <v>63.466005000000003</v>
@@ -3162,13 +3666,34 @@
       <c r="S27" s="23">
         <v>3.1717689999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <v>38.841146000000002</v>
+      </c>
+      <c r="U27">
+        <v>5.5400260000000001</v>
+      </c>
+      <c r="V27">
+        <v>17.901062</v>
+      </c>
+      <c r="W27">
+        <v>15.612176</v>
+      </c>
+      <c r="X27">
+        <v>4.2192809999999996</v>
+      </c>
+      <c r="Y27">
+        <v>17.886309000000001</v>
+      </c>
+      <c r="Z27">
+        <v>4.3761419999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="25">
         <v>0</v>
@@ -3189,25 +3714,25 @@
         <v>1.227929</v>
       </c>
       <c r="I28" s="25">
-        <v>22.384105999999999</v>
+        <v>24075.703604999999</v>
       </c>
       <c r="J28" s="22">
-        <v>11.127079</v>
+        <v>11967.96774</v>
       </c>
       <c r="K28" s="22">
-        <v>7.5234540000000001</v>
+        <v>8092.0120079999997</v>
       </c>
       <c r="L28" s="22">
-        <v>9.3733979999999999</v>
+        <v>10081.758260000001</v>
       </c>
       <c r="M28" s="22">
-        <v>16.487722000000002</v>
+        <v>17733.721743999999</v>
       </c>
       <c r="N28" s="23">
-        <v>33.104239999999997</v>
+        <v>35605.973083999997</v>
       </c>
       <c r="O28" s="24">
-        <v>8.2366810000000008</v>
+        <v>8859.1381029999993</v>
       </c>
       <c r="P28" s="25">
         <v>33.433123000000002</v>
@@ -3221,13 +3746,34 @@
       <c r="S28" s="23">
         <v>6.7964570000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>22.384105999999999</v>
+      </c>
+      <c r="U28">
+        <v>11.127079</v>
+      </c>
+      <c r="V28">
+        <v>7.5234540000000001</v>
+      </c>
+      <c r="W28">
+        <v>9.3733979999999999</v>
+      </c>
+      <c r="X28">
+        <v>16.487722000000002</v>
+      </c>
+      <c r="Y28">
+        <v>33.104239999999997</v>
+      </c>
+      <c r="Z28">
+        <v>8.2366810000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="25">
         <v>0</v>
@@ -3248,25 +3794,25 @@
         <v>5.5311890000000004</v>
       </c>
       <c r="I29" s="25">
-        <v>23.082039999999999</v>
+        <v>3301.7841050000002</v>
       </c>
       <c r="J29" s="22">
-        <v>18.899137</v>
+        <v>2703.4382930000002</v>
       </c>
       <c r="K29" s="22">
-        <v>6.1248630000000004</v>
+        <v>876.13468799999998</v>
       </c>
       <c r="L29" s="22">
-        <v>11.649832</v>
+        <v>1666.457136</v>
       </c>
       <c r="M29" s="22">
-        <v>10.923703</v>
+        <v>1562.5875510000001</v>
       </c>
       <c r="N29" s="23">
-        <v>29.320426000000001</v>
+        <v>4194.1577809999999</v>
       </c>
       <c r="O29" s="24">
-        <v>13.473203</v>
+        <v>1927.2823450000001</v>
       </c>
       <c r="P29" s="25">
         <v>71.151830000000004</v>
@@ -3280,13 +3826,34 @@
       <c r="S29" s="23">
         <v>5.6213879999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29">
+        <v>23.082039999999999</v>
+      </c>
+      <c r="U29">
+        <v>18.899137</v>
+      </c>
+      <c r="V29">
+        <v>6.1248630000000004</v>
+      </c>
+      <c r="W29">
+        <v>11.649832</v>
+      </c>
+      <c r="X29">
+        <v>10.923703</v>
+      </c>
+      <c r="Y29">
+        <v>29.320426000000001</v>
+      </c>
+      <c r="Z29">
+        <v>13.473203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="25">
         <v>0</v>
@@ -3307,25 +3874,25 @@
         <v>2.715E-3</v>
       </c>
       <c r="I30" s="25">
-        <v>4.0620430000000001</v>
+        <v>459.907736</v>
       </c>
       <c r="J30" s="22">
-        <v>15.459351</v>
+        <v>1750.320119</v>
       </c>
       <c r="K30" s="22">
-        <v>5.1827030000000001</v>
+        <v>586.789761</v>
       </c>
       <c r="L30" s="22">
-        <v>17.820813999999999</v>
+        <v>2017.6867569999999</v>
       </c>
       <c r="M30" s="22">
-        <v>9.5551960000000005</v>
+        <v>1081.846941</v>
       </c>
       <c r="N30" s="23">
-        <v>47.919893000000002</v>
+        <v>5425.5285299999996</v>
       </c>
       <c r="O30" s="24">
-        <v>13.484102999999999</v>
+        <v>1526.6809290000001</v>
       </c>
       <c r="P30" s="25">
         <v>5.3394719999999998</v>
@@ -3339,13 +3906,34 @@
       <c r="S30" s="23">
         <v>11.279576</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30">
+        <v>4.0620430000000001</v>
+      </c>
+      <c r="U30">
+        <v>15.459351</v>
+      </c>
+      <c r="V30">
+        <v>5.1827030000000001</v>
+      </c>
+      <c r="W30">
+        <v>17.820813999999999</v>
+      </c>
+      <c r="X30">
+        <v>9.5551960000000005</v>
+      </c>
+      <c r="Y30">
+        <v>47.919893000000002</v>
+      </c>
+      <c r="Z30">
+        <v>13.484102999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="25">
         <v>0</v>
@@ -3366,25 +3954,25 @@
         <v>4.0172359999999996</v>
       </c>
       <c r="I31" s="25">
-        <v>26.862853000000001</v>
+        <v>3313.5712880000001</v>
       </c>
       <c r="J31" s="22">
-        <v>14.745456000000001</v>
+        <v>1818.8730499999999</v>
       </c>
       <c r="K31" s="22">
-        <v>8.2225190000000001</v>
+        <v>1014.259518</v>
       </c>
       <c r="L31" s="22">
-        <v>12.754740999999999</v>
+        <v>1573.3154830000001</v>
       </c>
       <c r="M31" s="22">
-        <v>7.9235189999999998</v>
+        <v>977.37735399999997</v>
       </c>
       <c r="N31" s="23">
-        <v>29.490912000000002</v>
+        <v>3637.7461010000002</v>
       </c>
       <c r="O31" s="24">
-        <v>10.685340999999999</v>
+        <v>1318.0520819999999</v>
       </c>
       <c r="P31" s="25">
         <v>56.246555000000001</v>
@@ -3398,13 +3986,34 @@
       <c r="S31" s="23">
         <v>4.0052289999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31">
+        <v>26.862853000000001</v>
+      </c>
+      <c r="U31">
+        <v>14.745456000000001</v>
+      </c>
+      <c r="V31">
+        <v>8.2225190000000001</v>
+      </c>
+      <c r="W31">
+        <v>12.754740999999999</v>
+      </c>
+      <c r="X31">
+        <v>7.9235189999999998</v>
+      </c>
+      <c r="Y31">
+        <v>29.490912000000002</v>
+      </c>
+      <c r="Z31">
+        <v>10.685340999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="25">
         <v>0</v>
@@ -3425,45 +4034,66 @@
         <v>0.120645</v>
       </c>
       <c r="I32" s="25">
+        <v>53.320087000000001</v>
+      </c>
+      <c r="J32" s="22">
+        <v>156.335185</v>
+      </c>
+      <c r="K32" s="22">
+        <v>84.646828999999997</v>
+      </c>
+      <c r="L32" s="22">
+        <v>404.73674</v>
+      </c>
+      <c r="M32" s="22">
+        <v>151.36299399999999</v>
+      </c>
+      <c r="N32" s="23">
+        <v>902.44222400000001</v>
+      </c>
+      <c r="O32" s="24">
+        <v>112.60619199999999</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T32">
         <v>3.0419179999999999</v>
       </c>
-      <c r="J32" s="22">
+      <c r="U32">
         <v>8.9189439999999998</v>
       </c>
-      <c r="K32" s="22">
+      <c r="V32">
         <v>4.8291139999999997</v>
       </c>
-      <c r="L32" s="22">
+      <c r="W32">
         <v>23.090288000000001</v>
       </c>
-      <c r="M32" s="22">
+      <c r="X32">
         <v>8.6352799999999998</v>
       </c>
-      <c r="N32" s="23">
+      <c r="Y32">
         <v>51.484456000000002</v>
       </c>
-      <c r="O32" s="24">
+      <c r="Z32">
         <v>6.4241989999999998</v>
       </c>
-      <c r="P32" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="25">
         <v>0</v>
@@ -3484,25 +4114,25 @@
         <v>11.235692999999999</v>
       </c>
       <c r="I33" s="25">
-        <v>60.179209</v>
+        <v>5394.6534320000001</v>
       </c>
       <c r="J33" s="22">
-        <v>3.1599819999999998</v>
+        <v>283.27070300000003</v>
       </c>
       <c r="K33" s="22">
-        <v>4.1947950000000001</v>
+        <v>376.03457200000003</v>
       </c>
       <c r="L33" s="22">
-        <v>10.629517</v>
+        <v>952.86332800000002</v>
       </c>
       <c r="M33" s="22">
-        <v>9.3829399999999996</v>
+        <v>841.11620700000003</v>
       </c>
       <c r="N33" s="23">
-        <v>12.453557999999999</v>
+        <v>1116.3761030000001</v>
       </c>
       <c r="O33" s="24">
-        <v>2.4821420000000001</v>
+        <v>222.50702999999999</v>
       </c>
       <c r="P33" s="25">
         <v>26.858034</v>
@@ -3516,52 +4146,73 @@
       <c r="S33" s="23">
         <v>10.930908000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33">
+        <v>60.179209</v>
+      </c>
+      <c r="U33">
+        <v>3.1599819999999998</v>
+      </c>
+      <c r="V33">
+        <v>4.1947950000000001</v>
+      </c>
+      <c r="W33">
+        <v>10.629517</v>
+      </c>
+      <c r="X33">
+        <v>9.3829399999999996</v>
+      </c>
+      <c r="Y33">
+        <v>12.453557999999999</v>
+      </c>
+      <c r="Z33">
+        <v>2.4821420000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" s="38">
-        <v>1.626997</v>
+        <v>69.938996000000003</v>
       </c>
       <c r="J34" s="39">
-        <v>61.423993000000003</v>
+        <v>2640.4051690000001</v>
       </c>
       <c r="K34" s="39">
-        <v>4.0801119999999997</v>
+        <v>175.38991799999999</v>
       </c>
       <c r="L34" s="39">
-        <v>5.3923110000000003</v>
+        <v>231.79683</v>
       </c>
       <c r="M34" s="39">
-        <v>7.4652659999999997</v>
+        <v>320.90600000000001</v>
       </c>
       <c r="N34" s="40">
-        <v>20.011320000000001</v>
+        <v>860.21746299999995</v>
       </c>
       <c r="O34" s="41">
-        <v>2.5031870000000001</v>
+        <v>107.60333799999999</v>
       </c>
       <c r="P34" s="38">
         <v>59.914535000000001</v>
@@ -3575,13 +4226,34 @@
       <c r="S34" s="40">
         <v>5.9419700000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34">
+        <v>1.626997</v>
+      </c>
+      <c r="U34">
+        <v>61.423993000000003</v>
+      </c>
+      <c r="V34">
+        <v>4.0801119999999997</v>
+      </c>
+      <c r="W34">
+        <v>5.3923110000000003</v>
+      </c>
+      <c r="X34">
+        <v>7.4652659999999997</v>
+      </c>
+      <c r="Y34">
+        <v>20.011320000000001</v>
+      </c>
+      <c r="Z34">
+        <v>2.5031870000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="25">
         <v>0</v>
@@ -3602,25 +4274,25 @@
         <v>12.750211999999999</v>
       </c>
       <c r="I35" s="25">
-        <v>20.121683999999998</v>
+        <v>7512.9480789999998</v>
       </c>
       <c r="J35" s="22">
-        <v>18.296087</v>
+        <v>6831.3146630000001</v>
       </c>
       <c r="K35" s="22">
-        <v>3.424795</v>
+        <v>1278.735443</v>
       </c>
       <c r="L35" s="22">
-        <v>17.047687</v>
+        <v>6365.1923200000001</v>
       </c>
       <c r="M35" s="22">
-        <v>8.7934260000000002</v>
+        <v>3283.2515170000001</v>
       </c>
       <c r="N35" s="23">
-        <v>32.254646000000001</v>
+        <v>12043.10147</v>
       </c>
       <c r="O35" s="24">
-        <v>8.8091899999999992</v>
+        <v>3289.1374959999998</v>
       </c>
       <c r="P35" s="25">
         <v>40.671776999999999</v>
@@ -3634,13 +4306,34 @@
       <c r="S35" s="23">
         <v>3.024921</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35">
+        <v>20.121683999999998</v>
+      </c>
+      <c r="U35">
+        <v>18.296087</v>
+      </c>
+      <c r="V35">
+        <v>3.424795</v>
+      </c>
+      <c r="W35">
+        <v>17.047687</v>
+      </c>
+      <c r="X35">
+        <v>8.7934260000000002</v>
+      </c>
+      <c r="Y35">
+        <v>32.254646000000001</v>
+      </c>
+      <c r="Z35">
+        <v>8.8091899999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="25">
         <v>4.9401E-2</v>
@@ -3661,25 +4354,25 @@
         <v>6.6937090000000001</v>
       </c>
       <c r="I36" s="25">
-        <v>28.257808000000001</v>
+        <v>19293.744553</v>
       </c>
       <c r="J36" s="22">
-        <v>18.185198</v>
+        <v>12416.410755000001</v>
       </c>
       <c r="K36" s="22">
-        <v>14.752145000000001</v>
+        <v>10072.406220000001</v>
       </c>
       <c r="L36" s="22">
-        <v>10.057536000000001</v>
+        <v>6867.0412450000003</v>
       </c>
       <c r="M36" s="22">
-        <v>8.8579600000000003</v>
+        <v>6047.9995929999995</v>
       </c>
       <c r="N36" s="23">
-        <v>19.889351999999999</v>
+        <v>13579.966213</v>
       </c>
       <c r="O36" s="24">
-        <v>7.6985530000000004</v>
+        <v>5256.3850689999999</v>
       </c>
       <c r="P36" s="25">
         <v>66.042424999999994</v>
@@ -3693,13 +4386,34 @@
       <c r="S36" s="23">
         <v>4.5801319999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T36">
+        <v>28.257808000000001</v>
+      </c>
+      <c r="U36">
+        <v>18.185198</v>
+      </c>
+      <c r="V36">
+        <v>14.752145000000001</v>
+      </c>
+      <c r="W36">
+        <v>10.057536000000001</v>
+      </c>
+      <c r="X36">
+        <v>8.8579600000000003</v>
+      </c>
+      <c r="Y36">
+        <v>19.889351999999999</v>
+      </c>
+      <c r="Z36">
+        <v>7.6985530000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="27">
         <v>0</v>
@@ -3720,25 +4434,25 @@
         <v>7.4755200000000004</v>
       </c>
       <c r="I37" s="27">
-        <v>25.993099000000001</v>
+        <v>11424.921907</v>
       </c>
       <c r="J37" s="28">
-        <v>22.672039000000002</v>
+        <v>9965.194184</v>
       </c>
       <c r="K37" s="28">
-        <v>5.872109</v>
+        <v>2581.0074709999999</v>
       </c>
       <c r="L37" s="28">
-        <v>11.865923</v>
+        <v>5215.5091920000004</v>
       </c>
       <c r="M37" s="28">
-        <v>5.3810250000000002</v>
+        <v>2365.1582749999998</v>
       </c>
       <c r="N37" s="29">
-        <v>28.215805</v>
+        <v>12401.882653000001</v>
       </c>
       <c r="O37" s="30">
-        <v>17.400112</v>
+        <v>7647.988394</v>
       </c>
       <c r="P37" s="27">
         <v>66.666066999999998</v>
@@ -3752,11 +4466,34 @@
       <c r="S37" s="29">
         <v>4.2952940000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
+      <c r="T37">
+        <v>25.993099000000001</v>
+      </c>
+      <c r="U37">
+        <v>22.672039000000002</v>
+      </c>
+      <c r="V37">
+        <v>5.872109</v>
+      </c>
+      <c r="W37">
+        <v>11.865923</v>
+      </c>
+      <c r="X37">
+        <v>5.3810250000000002</v>
+      </c>
+      <c r="Y37">
+        <v>28.215805</v>
+      </c>
+      <c r="Z37">
+        <v>17.400112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="B38" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="33">
         <v>8.116E-3</v>
@@ -3777,25 +4514,25 @@
         <v>5.9029699999999998</v>
       </c>
       <c r="I38" s="33">
-        <v>27.885902000000002</v>
+        <v>120601.680852</v>
       </c>
       <c r="J38" s="34">
-        <v>13.344094</v>
+        <v>57710.88624</v>
       </c>
       <c r="K38" s="34">
-        <v>10.724048</v>
+        <v>46379.646472</v>
       </c>
       <c r="L38" s="34">
-        <v>12.700907000000001</v>
+        <v>54929.216242000002</v>
       </c>
       <c r="M38" s="34">
-        <v>9.3384049999999998</v>
+        <v>40386.978561000004</v>
       </c>
       <c r="N38" s="35">
-        <v>26.00132</v>
+        <v>112451.19016300001</v>
       </c>
       <c r="O38" s="36">
-        <v>8.2516580000000008</v>
+        <v>35686.985990000001</v>
       </c>
       <c r="P38" s="33">
         <v>45.230967</v>
@@ -3809,13 +4546,34 @@
       <c r="S38" s="35">
         <v>5.4448220000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38">
+        <v>27.885902000000002</v>
+      </c>
+      <c r="U38">
+        <v>13.344094</v>
+      </c>
+      <c r="V38">
+        <v>10.724048</v>
+      </c>
+      <c r="W38">
+        <v>12.700907000000001</v>
+      </c>
+      <c r="X38">
+        <v>9.3384049999999998</v>
+      </c>
+      <c r="Y38">
+        <v>26.00132</v>
+      </c>
+      <c r="Z38">
+        <v>8.2516580000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="53">
         <v>0</v>
@@ -3836,25 +4594,25 @@
         <v>22.59027</v>
       </c>
       <c r="I39" s="53">
-        <v>11.004225</v>
+        <v>23947.410814999999</v>
       </c>
       <c r="J39" s="54">
-        <v>32.197907999999998</v>
+        <v>70069.134489000004</v>
       </c>
       <c r="K39" s="54">
-        <v>12.436273999999999</v>
+        <v>27063.837997999999</v>
       </c>
       <c r="L39" s="54">
-        <v>11.370274999999999</v>
+        <v>24744.009427000001</v>
       </c>
       <c r="M39" s="54">
-        <v>9.7852309999999996</v>
+        <v>21294.633841999999</v>
       </c>
       <c r="N39" s="55">
-        <v>23.206085999999999</v>
+        <v>50501.118085000002</v>
       </c>
       <c r="O39" s="56">
-        <v>10.591167</v>
+        <v>23048.512807999999</v>
       </c>
       <c r="P39" s="53">
         <v>9.8438610000000004</v>
@@ -3868,13 +4626,34 @@
       <c r="S39" s="55">
         <v>10.464718</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39">
+        <v>11.004225</v>
+      </c>
+      <c r="U39">
+        <v>32.197907999999998</v>
+      </c>
+      <c r="V39">
+        <v>12.436273999999999</v>
+      </c>
+      <c r="W39">
+        <v>11.370274999999999</v>
+      </c>
+      <c r="X39">
+        <v>9.7852309999999996</v>
+      </c>
+      <c r="Y39">
+        <v>23.206085999999999</v>
+      </c>
+      <c r="Z39">
+        <v>10.591167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="25">
         <v>0</v>
@@ -3895,25 +4674,25 @@
         <v>5.1391200000000001</v>
       </c>
       <c r="I40" s="25">
-        <v>11.511421</v>
+        <v>44801.723320999998</v>
       </c>
       <c r="J40" s="22">
-        <v>26.773005000000001</v>
+        <v>104198.84600600001</v>
       </c>
       <c r="K40" s="22">
-        <v>7.6289259999999999</v>
+        <v>29691.297156000001</v>
       </c>
       <c r="L40" s="22">
-        <v>16.312926000000001</v>
+        <v>63488.878462000001</v>
       </c>
       <c r="M40" s="22">
-        <v>9.5143319999999996</v>
+        <v>37029.180935999997</v>
       </c>
       <c r="N40" s="23">
-        <v>28.259391000000001</v>
+        <v>109983.76699400001</v>
       </c>
       <c r="O40" s="24">
-        <v>16.795876</v>
+        <v>65368.489288999997</v>
       </c>
       <c r="P40" s="25">
         <v>19.289169000000001</v>
@@ -3927,13 +4706,34 @@
       <c r="S40" s="23">
         <v>12.586294000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40">
+        <v>11.511421</v>
+      </c>
+      <c r="U40">
+        <v>26.773005000000001</v>
+      </c>
+      <c r="V40">
+        <v>7.6289259999999999</v>
+      </c>
+      <c r="W40">
+        <v>16.312926000000001</v>
+      </c>
+      <c r="X40">
+        <v>9.5143319999999996</v>
+      </c>
+      <c r="Y40">
+        <v>28.259391000000001</v>
+      </c>
+      <c r="Z40">
+        <v>16.795876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="38">
         <v>0</v>
@@ -3954,25 +4754,25 @@
         <v>61.034708999999999</v>
       </c>
       <c r="I41" s="38">
-        <v>3.6575160000000002</v>
+        <v>1706.4737110000001</v>
       </c>
       <c r="J41" s="39">
-        <v>40.688487000000002</v>
+        <v>18983.877943</v>
       </c>
       <c r="K41" s="39">
-        <v>3.133902</v>
+        <v>1462.173155</v>
       </c>
       <c r="L41" s="39">
-        <v>6.9650559999999997</v>
+        <v>3249.660805</v>
       </c>
       <c r="M41" s="39">
-        <v>3.3804810000000001</v>
+        <v>1577.218736</v>
       </c>
       <c r="N41" s="40">
-        <v>42.174557</v>
+        <v>19677.228265999998</v>
       </c>
       <c r="O41" s="41">
-        <v>2.6588310000000002</v>
+        <v>1240.5208560000001</v>
       </c>
       <c r="P41" s="38">
         <v>9.1102319999999999</v>
@@ -3986,13 +4786,34 @@
       <c r="S41" s="40">
         <v>8.6308129999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41">
+        <v>3.6575160000000002</v>
+      </c>
+      <c r="U41">
+        <v>40.688487000000002</v>
+      </c>
+      <c r="V41">
+        <v>3.133902</v>
+      </c>
+      <c r="W41">
+        <v>6.9650559999999997</v>
+      </c>
+      <c r="X41">
+        <v>3.3804810000000001</v>
+      </c>
+      <c r="Y41">
+        <v>42.174557</v>
+      </c>
+      <c r="Z41">
+        <v>2.6588310000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="38">
         <v>0.67001699999999997</v>
@@ -4013,25 +4834,25 @@
         <v>11.448752000000001</v>
       </c>
       <c r="I42" s="38">
-        <v>22.352014</v>
+        <v>2029.175579</v>
       </c>
       <c r="J42" s="39">
-        <v>27.129534</v>
+        <v>2462.8915659999998</v>
       </c>
       <c r="K42" s="39">
-        <v>3.5476570000000001</v>
+        <v>322.06579099999999</v>
       </c>
       <c r="L42" s="39">
-        <v>12.147926</v>
+        <v>1102.8211719999999</v>
       </c>
       <c r="M42" s="39">
-        <v>6.8381759999999998</v>
+        <v>620.787871</v>
       </c>
       <c r="N42" s="40">
-        <v>27.984693</v>
+        <v>2540.525247</v>
       </c>
       <c r="O42" s="41">
-        <v>6.9753340000000001</v>
+        <v>633.23947499999997</v>
       </c>
       <c r="P42" s="38">
         <v>33.925581000000001</v>
@@ -4045,13 +4866,34 @@
       <c r="S42" s="40">
         <v>6.5644419999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T42">
+        <v>22.352014</v>
+      </c>
+      <c r="U42">
+        <v>27.129534</v>
+      </c>
+      <c r="V42">
+        <v>3.5476570000000001</v>
+      </c>
+      <c r="W42">
+        <v>12.147926</v>
+      </c>
+      <c r="X42">
+        <v>6.8381759999999998</v>
+      </c>
+      <c r="Y42">
+        <v>27.984693</v>
+      </c>
+      <c r="Z42">
+        <v>6.9753340000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="25">
         <v>0</v>
@@ -4072,25 +4914,25 @@
         <v>0.39170300000000002</v>
       </c>
       <c r="I43" s="25">
-        <v>10.865643</v>
+        <v>12857.038506999999</v>
       </c>
       <c r="J43" s="22">
-        <v>22.374562000000001</v>
+        <v>26475.248022</v>
       </c>
       <c r="K43" s="22">
-        <v>6.3012509999999997</v>
+        <v>7456.1099560000002</v>
       </c>
       <c r="L43" s="22">
-        <v>15.884337</v>
+        <v>18795.530548999999</v>
       </c>
       <c r="M43" s="22">
-        <v>5.9382760000000001</v>
+        <v>7026.6103080000003</v>
       </c>
       <c r="N43" s="23">
-        <v>38.635930999999999</v>
+        <v>45716.910996999999</v>
       </c>
       <c r="O43" s="24">
-        <v>17.355702000000001</v>
+        <v>20536.559141999998</v>
       </c>
       <c r="P43" s="25">
         <v>31.239768999999999</v>
@@ -4104,13 +4946,34 @@
       <c r="S43" s="23">
         <v>10.903909000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T43">
+        <v>10.865643</v>
+      </c>
+      <c r="U43">
+        <v>22.374562000000001</v>
+      </c>
+      <c r="V43">
+        <v>6.3012509999999997</v>
+      </c>
+      <c r="W43">
+        <v>15.884337</v>
+      </c>
+      <c r="X43">
+        <v>5.9382760000000001</v>
+      </c>
+      <c r="Y43">
+        <v>38.635930999999999</v>
+      </c>
+      <c r="Z43">
+        <v>17.355702000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="43">
         <v>0</v>
@@ -4131,25 +4994,25 @@
         <v>2.249231</v>
       </c>
       <c r="I44" s="43">
-        <v>11.103458</v>
+        <v>4814.7957210000004</v>
       </c>
       <c r="J44" s="44">
-        <v>20.879286</v>
+        <v>9053.8912400000008</v>
       </c>
       <c r="K44" s="44">
-        <v>4.6942139999999997</v>
+        <v>2035.5532760000001</v>
       </c>
       <c r="L44" s="44">
-        <v>15.423781</v>
+        <v>6688.2186339999998</v>
       </c>
       <c r="M44" s="44">
-        <v>7.8143859999999998</v>
+        <v>3388.554482</v>
       </c>
       <c r="N44" s="45">
-        <v>40.084727000000001</v>
+        <v>17381.952235000001</v>
       </c>
       <c r="O44" s="46">
-        <v>16.061419999999998</v>
+        <v>6964.7183919999998</v>
       </c>
       <c r="P44" s="43">
         <v>13.178648000000001</v>
@@ -4163,11 +5026,34 @@
       <c r="S44" s="45">
         <v>18.733706999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="31"/>
+      <c r="T44">
+        <v>11.103458</v>
+      </c>
+      <c r="U44">
+        <v>20.879286</v>
+      </c>
+      <c r="V44">
+        <v>4.6942139999999997</v>
+      </c>
+      <c r="W44">
+        <v>15.423781</v>
+      </c>
+      <c r="X44">
+        <v>7.8143859999999998</v>
+      </c>
+      <c r="Y44">
+        <v>40.084727000000001</v>
+      </c>
+      <c r="Z44">
+        <v>16.061419999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="B45" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="33">
         <v>6.2389999999999998E-3</v>
@@ -4188,25 +5074,25 @@
         <v>10.049448</v>
       </c>
       <c r="I45" s="33">
-        <v>10.938162</v>
+        <v>90156.617654000001</v>
       </c>
       <c r="J45" s="34">
-        <v>28.055434000000002</v>
+        <v>231243.88926600001</v>
       </c>
       <c r="K45" s="34">
-        <v>8.2537979999999997</v>
+        <v>68031.037333</v>
       </c>
       <c r="L45" s="34">
-        <v>14.324617999999999</v>
+        <v>118069.11904999999</v>
       </c>
       <c r="M45" s="34">
-        <v>8.6063589999999994</v>
+        <v>70936.986174999998</v>
       </c>
       <c r="N45" s="35">
-        <v>29.821622000000001</v>
+        <v>245801.501823</v>
       </c>
       <c r="O45" s="36">
-        <v>14.291002000000001</v>
+        <v>117792.039962</v>
       </c>
       <c r="P45" s="33">
         <v>19.43121</v>
@@ -4220,13 +5106,34 @@
       <c r="S45" s="35">
         <v>11.313980000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45">
+        <v>10.938162</v>
+      </c>
+      <c r="U45">
+        <v>28.055434000000002</v>
+      </c>
+      <c r="V45">
+        <v>8.2537979999999997</v>
+      </c>
+      <c r="W45">
+        <v>14.324617999999999</v>
+      </c>
+      <c r="X45">
+        <v>8.6063589999999994</v>
+      </c>
+      <c r="Y45">
+        <v>29.821622000000001</v>
+      </c>
+      <c r="Z45">
+        <v>14.291002000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="48">
         <v>0</v>
@@ -4247,25 +5154,25 @@
         <v>2.3044199999999999</v>
       </c>
       <c r="I46" s="48">
-        <v>29.619084000000001</v>
+        <v>4686.8181670000004</v>
       </c>
       <c r="J46" s="49">
-        <v>12.213025999999999</v>
+        <v>1932.5455609999999</v>
       </c>
       <c r="K46" s="49">
-        <v>6.5273380000000003</v>
+        <v>1032.8627349999999</v>
       </c>
       <c r="L46" s="49">
-        <v>15.934727000000001</v>
+        <v>2521.4543840000001</v>
       </c>
       <c r="M46" s="49">
-        <v>12.105528</v>
+        <v>1915.535478</v>
       </c>
       <c r="N46" s="50">
-        <v>23.600297000000001</v>
+        <v>3734.4267169999998</v>
       </c>
       <c r="O46" s="51">
-        <v>10.81758</v>
+        <v>1711.7351759999999</v>
       </c>
       <c r="P46" s="48">
         <v>29.196487999999999</v>
@@ -4279,13 +5186,34 @@
       <c r="S46" s="50">
         <v>16.500354999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46">
+        <v>29.619084000000001</v>
+      </c>
+      <c r="U46">
+        <v>12.213025999999999</v>
+      </c>
+      <c r="V46">
+        <v>6.5273380000000003</v>
+      </c>
+      <c r="W46">
+        <v>15.934727000000001</v>
+      </c>
+      <c r="X46">
+        <v>12.105528</v>
+      </c>
+      <c r="Y46">
+        <v>23.600297000000001</v>
+      </c>
+      <c r="Z46">
+        <v>10.81758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="25">
         <v>0</v>
@@ -4306,25 +5234,25 @@
         <v>20.135401000000002</v>
       </c>
       <c r="I47" s="25">
-        <v>20.574051999999998</v>
+        <v>3481.1217590000001</v>
       </c>
       <c r="J47" s="22">
-        <v>29.149405000000002</v>
+        <v>4932.0682710000001</v>
       </c>
       <c r="K47" s="22">
-        <v>2.8133210000000002</v>
+        <v>476.01278400000001</v>
       </c>
       <c r="L47" s="22">
-        <v>11.498006</v>
+        <v>1945.458318</v>
       </c>
       <c r="M47" s="22">
-        <v>4.2548940000000002</v>
+        <v>719.92640300000005</v>
       </c>
       <c r="N47" s="23">
-        <v>31.710322999999999</v>
+        <v>5365.3746810000002</v>
       </c>
       <c r="O47" s="24">
-        <v>12.15903</v>
+        <v>2057.3032119999998</v>
       </c>
       <c r="P47" s="25">
         <v>32.929943999999999</v>
@@ -4338,13 +5266,34 @@
       <c r="S47" s="23">
         <v>14.691846</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47">
+        <v>20.574051999999998</v>
+      </c>
+      <c r="U47">
+        <v>29.149405000000002</v>
+      </c>
+      <c r="V47">
+        <v>2.8133210000000002</v>
+      </c>
+      <c r="W47">
+        <v>11.498006</v>
+      </c>
+      <c r="X47">
+        <v>4.2548940000000002</v>
+      </c>
+      <c r="Y47">
+        <v>31.710322999999999</v>
+      </c>
+      <c r="Z47">
+        <v>12.15903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="38">
         <v>17.179997</v>
@@ -4365,25 +5314,25 @@
         <v>17.657723000000001</v>
       </c>
       <c r="I48" s="38">
-        <v>5.5332840000000001</v>
+        <v>109.115562</v>
       </c>
       <c r="J48" s="39">
-        <v>7.6792170000000004</v>
+        <v>151.43306799999999</v>
       </c>
       <c r="K48" s="39">
-        <v>5.520988</v>
+        <v>108.87309999999999</v>
       </c>
       <c r="L48" s="39">
-        <v>22.206714000000002</v>
+        <v>437.91322000000002</v>
       </c>
       <c r="M48" s="39">
-        <v>16.370238000000001</v>
+        <v>322.81873999999999</v>
       </c>
       <c r="N48" s="40">
-        <v>42.689559000000003</v>
+        <v>841.83197800000005</v>
       </c>
       <c r="O48" s="41">
-        <v>5.4609139999999998</v>
+        <v>107.688445</v>
       </c>
       <c r="P48" s="38">
         <v>10.566741</v>
@@ -4397,13 +5346,34 @@
       <c r="S48" s="40">
         <v>9.9286510000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T48">
+        <v>5.5332840000000001</v>
+      </c>
+      <c r="U48">
+        <v>7.6792170000000004</v>
+      </c>
+      <c r="V48">
+        <v>5.520988</v>
+      </c>
+      <c r="W48">
+        <v>22.206714000000002</v>
+      </c>
+      <c r="X48">
+        <v>16.370238000000001</v>
+      </c>
+      <c r="Y48">
+        <v>42.689559000000003</v>
+      </c>
+      <c r="Z48">
+        <v>5.4609139999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="25">
         <v>0</v>
@@ -4424,25 +5394,25 @@
         <v>4.7350219999999998</v>
       </c>
       <c r="I49" s="25">
-        <v>16.946043</v>
+        <v>11076.024857</v>
       </c>
       <c r="J49" s="22">
-        <v>20.316811999999999</v>
+        <v>13279.17772</v>
       </c>
       <c r="K49" s="22">
-        <v>5.0493649999999999</v>
+        <v>3300.2921809999998</v>
       </c>
       <c r="L49" s="22">
-        <v>13.801449</v>
+        <v>9020.7012670000004</v>
       </c>
       <c r="M49" s="22">
-        <v>13.445893</v>
+        <v>8788.3082979999999</v>
       </c>
       <c r="N49" s="23">
-        <v>30.440438</v>
+        <v>19896.034417999999</v>
       </c>
       <c r="O49" s="24">
-        <v>15.431908999999999</v>
+        <v>10086.378943</v>
       </c>
       <c r="P49" s="25">
         <v>46.166721000000003</v>
@@ -4456,13 +5426,34 @@
       <c r="S49" s="23">
         <v>6.911124</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T49">
+        <v>16.946043</v>
+      </c>
+      <c r="U49">
+        <v>20.316811999999999</v>
+      </c>
+      <c r="V49">
+        <v>5.0493649999999999</v>
+      </c>
+      <c r="W49">
+        <v>13.801449</v>
+      </c>
+      <c r="X49">
+        <v>13.445893</v>
+      </c>
+      <c r="Y49">
+        <v>30.440438</v>
+      </c>
+      <c r="Z49">
+        <v>15.431908999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="25">
         <v>0</v>
@@ -4483,25 +5474,25 @@
         <v>2.8567300000000002</v>
       </c>
       <c r="I50" s="25">
-        <v>24.299206000000002</v>
+        <v>504.01840299999998</v>
       </c>
       <c r="J50" s="22">
-        <v>4.3109359999999999</v>
+        <v>89.418195999999995</v>
       </c>
       <c r="K50" s="22">
-        <v>12.259156000000001</v>
+        <v>254.281577</v>
       </c>
       <c r="L50" s="22">
-        <v>38.406328999999999</v>
+        <v>796.63082899999995</v>
       </c>
       <c r="M50" s="22">
-        <v>5.243042</v>
+        <v>108.752105</v>
       </c>
       <c r="N50" s="23">
-        <v>15.48133</v>
+        <v>321.11646200000001</v>
       </c>
       <c r="O50" s="24">
-        <v>1.5208109999999999</v>
+        <v>31.544926</v>
       </c>
       <c r="P50" s="25">
         <v>31.020769000000001</v>
@@ -4515,13 +5506,34 @@
       <c r="S50" s="23">
         <v>8.1535270000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50">
+        <v>24.299206000000002</v>
+      </c>
+      <c r="U50">
+        <v>4.3109359999999999</v>
+      </c>
+      <c r="V50">
+        <v>12.259156000000001</v>
+      </c>
+      <c r="W50">
+        <v>38.406328999999999</v>
+      </c>
+      <c r="X50">
+        <v>5.243042</v>
+      </c>
+      <c r="Y50">
+        <v>15.48133</v>
+      </c>
+      <c r="Z50">
+        <v>1.5208109999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
@@ -4542,25 +5554,25 @@
         <v>13.347485000000001</v>
       </c>
       <c r="I51" s="17">
-        <v>20.812390000000001</v>
+        <v>14491.484181</v>
       </c>
       <c r="J51" s="18">
-        <v>27.385736000000001</v>
+        <v>19068.447969000001</v>
       </c>
       <c r="K51" s="18">
-        <v>6.1788369999999997</v>
+        <v>4302.2701999999999</v>
       </c>
       <c r="L51" s="18">
-        <v>19.382439000000002</v>
+        <v>13495.822252</v>
       </c>
       <c r="M51" s="18">
-        <v>10.230575</v>
+        <v>7123.4599390000003</v>
       </c>
       <c r="N51" s="19">
-        <v>16.010021999999999</v>
+        <v>11147.637929</v>
       </c>
       <c r="O51" s="20">
-        <v>12.248791000000001</v>
+        <v>8528.7255669999995</v>
       </c>
       <c r="P51" s="17">
         <v>37.709147000000002</v>
@@ -4574,13 +5586,34 @@
       <c r="S51" s="19">
         <v>11.356491</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51">
+        <v>20.812390000000001</v>
+      </c>
+      <c r="U51">
+        <v>27.385736000000001</v>
+      </c>
+      <c r="V51">
+        <v>6.1788369999999997</v>
+      </c>
+      <c r="W51">
+        <v>19.382439000000002</v>
+      </c>
+      <c r="X51">
+        <v>10.230575</v>
+      </c>
+      <c r="Y51">
+        <v>16.010021999999999</v>
+      </c>
+      <c r="Z51">
+        <v>12.248791000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="25">
         <v>0</v>
@@ -4601,25 +5634,25 @@
         <v>4.5195590000000001</v>
       </c>
       <c r="I52" s="25">
-        <v>30.017077</v>
+        <v>5546.3759659999996</v>
       </c>
       <c r="J52" s="22">
-        <v>26.920856000000001</v>
+        <v>4974.2747090000003</v>
       </c>
       <c r="K52" s="22">
-        <v>1.109076</v>
+        <v>204.92836800000001</v>
       </c>
       <c r="L52" s="22">
-        <v>17.824076000000002</v>
+        <v>3293.42607</v>
       </c>
       <c r="M52" s="22">
-        <v>4.4654889999999998</v>
+        <v>825.10632599999997</v>
       </c>
       <c r="N52" s="23">
-        <v>19.662185000000001</v>
+        <v>3633.0609920000002</v>
       </c>
       <c r="O52" s="24">
-        <v>13.479678</v>
+        <v>2490.6943419999998</v>
       </c>
       <c r="P52" s="25">
         <v>59.324328000000001</v>
@@ -4633,13 +5666,34 @@
       <c r="S52" s="23">
         <v>2.6042939999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>30.017077</v>
+      </c>
+      <c r="U52">
+        <v>26.920856000000001</v>
+      </c>
+      <c r="V52">
+        <v>1.109076</v>
+      </c>
+      <c r="W52">
+        <v>17.824076000000002</v>
+      </c>
+      <c r="X52">
+        <v>4.4654889999999998</v>
+      </c>
+      <c r="Y52">
+        <v>19.662185000000001</v>
+      </c>
+      <c r="Z52">
+        <v>13.479678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="25">
         <v>0</v>
@@ -4660,25 +5714,25 @@
         <v>10.428504</v>
       </c>
       <c r="I53" s="25">
-        <v>47.758730999999997</v>
+        <v>715.99463700000001</v>
       </c>
       <c r="J53" s="22">
-        <v>15.777875999999999</v>
+        <v>236.540514</v>
       </c>
       <c r="K53" s="22">
-        <v>1.690847</v>
+        <v>25.349035000000001</v>
       </c>
       <c r="L53" s="22">
-        <v>17.361089</v>
+        <v>260.27589499999999</v>
       </c>
       <c r="M53" s="22">
-        <v>4.359769</v>
+        <v>65.361264000000006</v>
       </c>
       <c r="N53" s="23">
-        <v>13.051688</v>
+        <v>195.66975099999999</v>
       </c>
       <c r="O53" s="24">
-        <v>14.778937000000001</v>
+        <v>221.564503</v>
       </c>
       <c r="P53" s="25">
         <v>51.130443999999997</v>
@@ -4692,13 +5746,34 @@
       <c r="S53" s="23">
         <v>6.9840410000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <v>47.758730999999997</v>
+      </c>
+      <c r="U53">
+        <v>15.777875999999999</v>
+      </c>
+      <c r="V53">
+        <v>1.690847</v>
+      </c>
+      <c r="W53">
+        <v>17.361089</v>
+      </c>
+      <c r="X53">
+        <v>4.359769</v>
+      </c>
+      <c r="Y53">
+        <v>13.051688</v>
+      </c>
+      <c r="Z53">
+        <v>14.778937000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="25">
         <v>0</v>
@@ -4719,25 +5794,25 @@
         <v>21.915600000000001</v>
       </c>
       <c r="I54" s="25">
-        <v>22.479745000000001</v>
+        <v>970.95997399999999</v>
       </c>
       <c r="J54" s="22">
-        <v>19.671671</v>
+        <v>849.67179799999997</v>
       </c>
       <c r="K54" s="22">
-        <v>3.4432390000000002</v>
+        <v>148.72265300000001</v>
       </c>
       <c r="L54" s="22">
-        <v>32.194473000000002</v>
+        <v>1390.5648900000001</v>
       </c>
       <c r="M54" s="22">
-        <v>3.074684</v>
+        <v>132.803766</v>
       </c>
       <c r="N54" s="23">
-        <v>19.136188000000001</v>
+        <v>826.542822</v>
       </c>
       <c r="O54" s="24">
-        <v>4.8476850000000002</v>
+        <v>209.38442599999999</v>
       </c>
       <c r="P54" s="25">
         <v>40.125298000000001</v>
@@ -4751,13 +5826,34 @@
       <c r="S54" s="23">
         <v>3.3877320000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <v>22.479745000000001</v>
+      </c>
+      <c r="U54">
+        <v>19.671671</v>
+      </c>
+      <c r="V54">
+        <v>3.4432390000000002</v>
+      </c>
+      <c r="W54">
+        <v>32.194473000000002</v>
+      </c>
+      <c r="X54">
+        <v>3.074684</v>
+      </c>
+      <c r="Y54">
+        <v>19.136188000000001</v>
+      </c>
+      <c r="Z54">
+        <v>4.8476850000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="25">
         <v>0</v>
@@ -4778,25 +5874,25 @@
         <v>18.417881999999999</v>
       </c>
       <c r="I55" s="25">
-        <v>37.917040999999998</v>
+        <v>6639.6051079999997</v>
       </c>
       <c r="J55" s="22">
-        <v>17.849495999999998</v>
+        <v>3125.6026310000002</v>
       </c>
       <c r="K55" s="22">
-        <v>4.2759799999999997</v>
+        <v>748.76148899999998</v>
       </c>
       <c r="L55" s="22">
-        <v>11.744631</v>
+        <v>2056.5874159999998</v>
       </c>
       <c r="M55" s="22">
-        <v>5.6996140000000004</v>
+        <v>998.05224099999998</v>
       </c>
       <c r="N55" s="23">
-        <v>22.513238000000001</v>
+        <v>3942.2646770000001</v>
       </c>
       <c r="O55" s="24">
-        <v>16.877036</v>
+        <v>2955.3164569999999</v>
       </c>
       <c r="P55" s="25">
         <v>68.247801999999993</v>
@@ -4810,13 +5906,34 @@
       <c r="S55" s="23">
         <v>6.8871659999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>37.917040999999998</v>
+      </c>
+      <c r="U55">
+        <v>17.849495999999998</v>
+      </c>
+      <c r="V55">
+        <v>4.2759799999999997</v>
+      </c>
+      <c r="W55">
+        <v>11.744631</v>
+      </c>
+      <c r="X55">
+        <v>5.6996140000000004</v>
+      </c>
+      <c r="Y55">
+        <v>22.513238000000001</v>
+      </c>
+      <c r="Z55">
+        <v>16.877036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="25">
         <v>3.7253000000000001E-2</v>
@@ -4837,25 +5954,25 @@
         <v>6.4090699999999998</v>
       </c>
       <c r="I56" s="25">
-        <v>43.660739</v>
+        <v>6381.9777910000003</v>
       </c>
       <c r="J56" s="22">
-        <v>15.688001</v>
+        <v>2293.1465750000002</v>
       </c>
       <c r="K56" s="22">
-        <v>4.2557989999999997</v>
+        <v>622.07862699999998</v>
       </c>
       <c r="L56" s="22">
-        <v>13.427432</v>
+        <v>1962.7146310000001</v>
       </c>
       <c r="M56" s="22">
-        <v>4.7183520000000003</v>
+        <v>689.69091700000001</v>
       </c>
       <c r="N56" s="23">
-        <v>18.249676999999998</v>
+        <v>2667.5918729999999</v>
       </c>
       <c r="O56" s="24">
-        <v>7.3846020000000001</v>
+        <v>1079.42209</v>
       </c>
       <c r="P56" s="25">
         <v>71.096414999999993</v>
@@ -4869,13 +5986,34 @@
       <c r="S56" s="23">
         <v>5.5851730000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>43.660739</v>
+      </c>
+      <c r="U56">
+        <v>15.688001</v>
+      </c>
+      <c r="V56">
+        <v>4.2557989999999997</v>
+      </c>
+      <c r="W56">
+        <v>13.427432</v>
+      </c>
+      <c r="X56">
+        <v>4.7183520000000003</v>
+      </c>
+      <c r="Y56">
+        <v>18.249676999999998</v>
+      </c>
+      <c r="Z56">
+        <v>7.3846020000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="25">
         <v>4.7800000000000002E-4</v>
@@ -4896,25 +6034,25 @@
         <v>8.5529539999999997</v>
       </c>
       <c r="I57" s="25">
-        <v>24.051893</v>
+        <v>112550.342175</v>
       </c>
       <c r="J57" s="22">
-        <v>21.863678</v>
+        <v>102310.634628</v>
       </c>
       <c r="K57" s="22">
-        <v>9.3795359999999999</v>
+        <v>43891.349249999999</v>
       </c>
       <c r="L57" s="22">
-        <v>14.230981</v>
+        <v>66593.586710999996</v>
       </c>
       <c r="M57" s="22">
-        <v>12.763916</v>
+        <v>59728.48558</v>
       </c>
       <c r="N57" s="23">
-        <v>17.709994999999999</v>
+        <v>82873.561608999997</v>
       </c>
       <c r="O57" s="24">
-        <v>13.800060999999999</v>
+        <v>64577.103079</v>
       </c>
       <c r="P57" s="25">
         <v>37.088676999999997</v>
@@ -4928,13 +6066,34 @@
       <c r="S57" s="23">
         <v>12.658315</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>24.051893</v>
+      </c>
+      <c r="U57">
+        <v>21.863678</v>
+      </c>
+      <c r="V57">
+        <v>9.3795359999999999</v>
+      </c>
+      <c r="W57">
+        <v>14.230981</v>
+      </c>
+      <c r="X57">
+        <v>12.763916</v>
+      </c>
+      <c r="Y57">
+        <v>17.709994999999999</v>
+      </c>
+      <c r="Z57">
+        <v>13.800060999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="25">
         <v>0</v>
@@ -4955,25 +6114,25 @@
         <v>4.4015969999999998</v>
       </c>
       <c r="I58" s="25">
-        <v>17.982879000000001</v>
+        <v>4513.2925320000004</v>
       </c>
       <c r="J58" s="22">
-        <v>25.048760999999999</v>
+        <v>6286.6677570000002</v>
       </c>
       <c r="K58" s="22">
-        <v>2.2294360000000002</v>
+        <v>559.53759000000002</v>
       </c>
       <c r="L58" s="22">
-        <v>15.274834</v>
+        <v>3833.6349660000001</v>
       </c>
       <c r="M58" s="22">
-        <v>6.8024190000000004</v>
+        <v>1707.2520050000001</v>
       </c>
       <c r="N58" s="23">
-        <v>32.661670999999998</v>
+        <v>8197.3346349999993</v>
       </c>
       <c r="O58" s="24">
-        <v>16.906535000000002</v>
+        <v>4243.1548499999999</v>
       </c>
       <c r="P58" s="25">
         <v>22.662329</v>
@@ -4987,13 +6146,34 @@
       <c r="S58" s="23">
         <v>13.002141</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>17.982879000000001</v>
+      </c>
+      <c r="U58">
+        <v>25.048760999999999</v>
+      </c>
+      <c r="V58">
+        <v>2.2294360000000002</v>
+      </c>
+      <c r="W58">
+        <v>15.274834</v>
+      </c>
+      <c r="X58">
+        <v>6.8024190000000004</v>
+      </c>
+      <c r="Y58">
+        <v>32.661670999999998</v>
+      </c>
+      <c r="Z58">
+        <v>16.906535000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" s="25">
         <v>0</v>
@@ -5002,7 +6182,7 @@
         <v>8.8242329999999995</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F59" s="22">
         <v>0</v>
@@ -5014,25 +6194,25 @@
         <v>9.0370139999999992</v>
       </c>
       <c r="I59" s="25">
-        <v>34.941039000000004</v>
+        <v>2403.8678</v>
       </c>
       <c r="J59" s="22">
-        <v>13.593339</v>
+        <v>935.19230600000003</v>
       </c>
       <c r="K59" s="22">
-        <v>7.8622860000000001</v>
+        <v>540.90827400000001</v>
       </c>
       <c r="L59" s="22">
-        <v>24.525936999999999</v>
+        <v>1687.3313579999999</v>
       </c>
       <c r="M59" s="22">
-        <v>4.9985340000000003</v>
+        <v>343.88834200000002</v>
       </c>
       <c r="N59" s="23">
-        <v>14.078865</v>
+        <v>968.59540200000004</v>
       </c>
       <c r="O59" s="24">
-        <v>7.2493800000000004</v>
+        <v>498.741647</v>
       </c>
       <c r="P59" s="25">
         <v>44.190707000000003</v>
@@ -5046,13 +6226,34 @@
       <c r="S59" s="23">
         <v>4.4382900000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T59">
+        <v>34.941039000000004</v>
+      </c>
+      <c r="U59">
+        <v>13.593339</v>
+      </c>
+      <c r="V59">
+        <v>7.8622860000000001</v>
+      </c>
+      <c r="W59">
+        <v>24.525936999999999</v>
+      </c>
+      <c r="X59">
+        <v>4.9985340000000003</v>
+      </c>
+      <c r="Y59">
+        <v>14.078865</v>
+      </c>
+      <c r="Z59">
+        <v>7.2493800000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="27">
         <v>0</v>
@@ -5073,25 +6274,25 @@
         <v>7.8641740000000002</v>
       </c>
       <c r="I60" s="27">
-        <v>20.872444000000002</v>
+        <v>1553.1522629999999</v>
       </c>
       <c r="J60" s="28">
-        <v>19.560202</v>
+        <v>1455.5061780000001</v>
       </c>
       <c r="K60" s="28">
-        <v>2.651656</v>
+        <v>197.31402</v>
       </c>
       <c r="L60" s="28">
-        <v>8.9728429999999992</v>
+        <v>667.68370500000003</v>
       </c>
       <c r="M60" s="28">
-        <v>14.149618</v>
+        <v>1052.8958889999999</v>
       </c>
       <c r="N60" s="29">
-        <v>33.793238000000002</v>
+        <v>2514.6093989999999</v>
       </c>
       <c r="O60" s="30">
-        <v>14.85126</v>
+        <v>1105.106223</v>
       </c>
       <c r="P60" s="27">
         <v>31.490663000000001</v>
@@ -5105,11 +6306,32 @@
       <c r="S60" s="29">
         <v>15.098188</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T60">
+        <v>20.872444000000002</v>
+      </c>
+      <c r="U60">
+        <v>19.560202</v>
+      </c>
+      <c r="V60">
+        <v>2.651656</v>
+      </c>
+      <c r="W60">
+        <v>8.9728429999999992</v>
+      </c>
+      <c r="X60">
+        <v>14.149618</v>
+      </c>
+      <c r="Y60">
+        <v>33.793238000000002</v>
+      </c>
+      <c r="Z60">
+        <v>14.85126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="33">
         <v>2.8899000000000001E-2</v>
@@ -5130,25 +6352,25 @@
         <v>8.8508870000000002</v>
       </c>
       <c r="I61" s="33">
-        <v>23.875924999999999</v>
+        <v>175624.15117600001</v>
       </c>
       <c r="J61" s="34">
-        <v>22.012905</v>
+        <v>161920.327881</v>
       </c>
       <c r="K61" s="34">
-        <v>7.6693639999999998</v>
+        <v>56413.541882999998</v>
       </c>
       <c r="L61" s="34">
-        <v>14.949465</v>
+        <v>109963.78591200001</v>
       </c>
       <c r="M61" s="34">
-        <v>11.490726</v>
+        <v>84522.337293999997</v>
       </c>
       <c r="N61" s="35">
-        <v>20.001584000000001</v>
+        <v>147125.65334200001</v>
       </c>
       <c r="O61" s="36">
-        <v>13.581829000000001</v>
+        <v>99903.863886000006</v>
       </c>
       <c r="P61" s="33">
         <v>40.863098000000001</v>
@@ -5162,11 +6384,32 @@
       <c r="S61" s="35">
         <v>9.2124889999999997</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T61">
+        <v>23.875924999999999</v>
+      </c>
+      <c r="U61">
+        <v>22.012905</v>
+      </c>
+      <c r="V61">
+        <v>7.6693639999999998</v>
+      </c>
+      <c r="W61">
+        <v>14.949465</v>
+      </c>
+      <c r="X61">
+        <v>11.490726</v>
+      </c>
+      <c r="Y61">
+        <v>20.001584000000001</v>
+      </c>
+      <c r="Z61">
+        <v>13.581829000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="58"/>
       <c r="B62" s="59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="60">
         <v>0.279443</v>
@@ -5187,25 +6430,25 @@
         <v>10.279185999999999</v>
       </c>
       <c r="I62" s="60">
-        <v>16.489359</v>
+        <v>455248.31090099999</v>
       </c>
       <c r="J62" s="61">
-        <v>25.045494999999999</v>
+        <v>691471.32551999995</v>
       </c>
       <c r="K62" s="61">
-        <v>7.2447160000000004</v>
+        <v>200016.54657000001</v>
       </c>
       <c r="L62" s="61">
-        <v>14.345048999999999</v>
+        <v>396046.88243599999</v>
       </c>
       <c r="M62" s="61">
-        <v>9.1521709999999992</v>
+        <v>252678.73978999999</v>
       </c>
       <c r="N62" s="62">
-        <v>27.721374999999998</v>
+        <v>765348.66993500001</v>
       </c>
       <c r="O62" s="63">
-        <v>12.790322</v>
+        <v>353123.03014500003</v>
       </c>
       <c r="P62" s="60">
         <v>41.108572000000002</v>
@@ -5219,11 +6462,32 @@
       <c r="S62" s="62">
         <v>8.0442940000000007</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T62">
+        <v>16.489359</v>
+      </c>
+      <c r="U62">
+        <v>25.045494999999999</v>
+      </c>
+      <c r="V62">
+        <v>7.2447160000000004</v>
+      </c>
+      <c r="W62">
+        <v>14.345048999999999</v>
+      </c>
+      <c r="X62">
+        <v>9.1521709999999992</v>
+      </c>
+      <c r="Y62">
+        <v>27.721374999999998</v>
+      </c>
+      <c r="Z62">
+        <v>12.790322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="58"/>
       <c r="B63" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="60">
         <v>0.33656700000000001</v>
@@ -5244,25 +6508,25 @@
         <v>3.85433</v>
       </c>
       <c r="I63" s="60">
-        <v>4.1906829999999999</v>
+        <v>3910539.9517219998</v>
       </c>
       <c r="J63" s="61">
-        <v>22.885465</v>
+        <v>21355592.816404998</v>
       </c>
       <c r="K63" s="61">
-        <v>5.6845650000000001</v>
+        <v>5304557.551364</v>
       </c>
       <c r="L63" s="61">
-        <v>14.112746</v>
+        <v>13169322.587727999</v>
       </c>
       <c r="M63" s="61">
-        <v>9.6220169999999996</v>
+        <v>8978793.7848620005</v>
       </c>
       <c r="N63" s="62">
-        <v>43.504524000000004</v>
+        <v>40596286.873391002</v>
       </c>
       <c r="O63" s="63">
-        <v>16.684042000000002</v>
+        <v>15568729.114737</v>
       </c>
       <c r="P63" s="60">
         <v>16.660543000000001</v>
@@ -5276,11 +6540,32 @@
       <c r="S63" s="62">
         <v>11.524908</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <v>4.1906829999999999</v>
+      </c>
+      <c r="U63">
+        <v>22.885465</v>
+      </c>
+      <c r="V63">
+        <v>5.6845650000000001</v>
+      </c>
+      <c r="W63">
+        <v>14.112746</v>
+      </c>
+      <c r="X63">
+        <v>9.6220169999999996</v>
+      </c>
+      <c r="Y63">
+        <v>43.504524000000004</v>
+      </c>
+      <c r="Z63">
+        <v>16.684042000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="64"/>
       <c r="B64" s="65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="66">
         <v>6.7177000000000001E-2</v>
@@ -5301,25 +6586,25 @@
         <v>6.2007490000000001</v>
       </c>
       <c r="I64" s="66">
-        <v>6.1948460000000001</v>
+        <v>338747.925376</v>
       </c>
       <c r="J64" s="67">
-        <v>25.127912999999999</v>
+        <v>1374049.9155639999</v>
       </c>
       <c r="K64" s="67">
-        <v>5.4029819999999997</v>
+        <v>295447.03169999999</v>
       </c>
       <c r="L64" s="67">
-        <v>17.846958000000001</v>
+        <v>975911.17420600005</v>
       </c>
       <c r="M64" s="67">
-        <v>7.5486269999999998</v>
+        <v>412775.65058800002</v>
       </c>
       <c r="N64" s="68">
-        <v>37.878673999999997</v>
+        <v>2071289.7831309999</v>
       </c>
       <c r="O64" s="69">
-        <v>16.630351999999998</v>
+        <v>909384.46456500003</v>
       </c>
       <c r="P64" s="66">
         <v>15.995934</v>
@@ -5333,11 +6618,32 @@
       <c r="S64" s="68">
         <v>9.7542740000000006</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <v>6.1948460000000001</v>
+      </c>
+      <c r="U64">
+        <v>25.127912999999999</v>
+      </c>
+      <c r="V64">
+        <v>5.4029819999999997</v>
+      </c>
+      <c r="W64">
+        <v>17.846958000000001</v>
+      </c>
+      <c r="X64">
+        <v>7.5486269999999998</v>
+      </c>
+      <c r="Y64">
+        <v>37.878673999999997</v>
+      </c>
+      <c r="Z64">
+        <v>16.630351999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="64"/>
       <c r="B65" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="71">
         <v>0.68862400000000001</v>
@@ -5358,25 +6664,25 @@
         <v>3.6381869999999998</v>
       </c>
       <c r="I65" s="71">
-        <v>9.8506239999999998</v>
+        <v>2551555.5541739999</v>
       </c>
       <c r="J65" s="72">
-        <v>30.881468999999999</v>
+        <v>7999065.0944379997</v>
       </c>
       <c r="K65" s="72">
-        <v>6.991581</v>
+        <v>1810992.5449930001</v>
       </c>
       <c r="L65" s="72">
-        <v>12.186493</v>
+        <v>3156603.4747020002</v>
       </c>
       <c r="M65" s="72">
-        <v>8.7028549999999996</v>
+        <v>2254255.0260700001</v>
       </c>
       <c r="N65" s="73">
-        <v>31.386977999999999</v>
+        <v>8130004.4608150003</v>
       </c>
       <c r="O65" s="74">
-        <v>24.671538000000002</v>
+        <v>6390539.2540610004</v>
       </c>
       <c r="P65" s="71">
         <v>30.218969000000001</v>
@@ -5390,11 +6696,32 @@
       <c r="S65" s="73">
         <v>11.798079</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T65">
+        <v>9.8506239999999998</v>
+      </c>
+      <c r="U65">
+        <v>30.881468999999999</v>
+      </c>
+      <c r="V65">
+        <v>6.991581</v>
+      </c>
+      <c r="W65">
+        <v>12.186493</v>
+      </c>
+      <c r="X65">
+        <v>8.7028549999999996</v>
+      </c>
+      <c r="Y65">
+        <v>31.386977999999999</v>
+      </c>
+      <c r="Z65">
+        <v>24.671538000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="64"/>
       <c r="B66" s="75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="76">
         <v>0.33339000000000002</v>
@@ -5415,25 +6742,25 @@
         <v>4.2115030000000004</v>
       </c>
       <c r="I66" s="76">
-        <v>4.5441010000000004</v>
+        <v>4365788.2626219997</v>
       </c>
       <c r="J66" s="77">
-        <v>22.947535999999999</v>
+        <v>22047064.141925</v>
       </c>
       <c r="K66" s="77">
-        <v>5.7293979999999998</v>
+        <v>5504574.0979340002</v>
       </c>
       <c r="L66" s="77">
-        <v>14.119422</v>
+        <v>13565369.470163001</v>
       </c>
       <c r="M66" s="77">
-        <v>9.6085150000000006</v>
+        <v>9231472.5246520005</v>
       </c>
       <c r="N66" s="78">
-        <v>43.050975000000001</v>
+        <v>41361635.543325998</v>
       </c>
       <c r="O66" s="79">
-        <v>16.572151000000002</v>
+        <v>15921852.144881001</v>
       </c>
       <c r="P66" s="76">
         <v>23.940011999999999</v>
@@ -5447,11 +6774,32 @@
       <c r="S66" s="78">
         <v>10.488545999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>4.5441010000000004</v>
+      </c>
+      <c r="U66">
+        <v>22.947535999999999</v>
+      </c>
+      <c r="V66">
+        <v>5.7293979999999998</v>
+      </c>
+      <c r="W66">
+        <v>14.119422</v>
+      </c>
+      <c r="X66">
+        <v>9.6085150000000006</v>
+      </c>
+      <c r="Y66">
+        <v>43.050975000000001</v>
+      </c>
+      <c r="Z66">
+        <v>16.572151000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="64"/>
       <c r="B67" s="70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="71">
         <v>1.3698999999999999E-2</v>
@@ -5472,25 +6820,25 @@
         <v>8.7128479999999993</v>
       </c>
       <c r="I67" s="71">
-        <v>17.662462999999999</v>
+        <v>171617.256628</v>
       </c>
       <c r="J67" s="72">
-        <v>23.088730999999999</v>
+        <v>224341.568294</v>
       </c>
       <c r="K67" s="72">
-        <v>7.7254870000000002</v>
+        <v>75064.660445999994</v>
       </c>
       <c r="L67" s="72">
-        <v>14.449878999999999</v>
+        <v>140402.19003200001</v>
       </c>
       <c r="M67" s="72">
-        <v>9.2323930000000001</v>
+        <v>89706.50864</v>
       </c>
       <c r="N67" s="73">
-        <v>27.835844000000002</v>
+        <v>270466.86614900001</v>
       </c>
       <c r="O67" s="74">
-        <v>12.901616000000001</v>
+        <v>125358.498937</v>
       </c>
       <c r="P67" s="71">
         <v>41.653308000000003</v>
@@ -5504,11 +6852,32 @@
       <c r="S67" s="73">
         <v>6.7693339999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>17.662462999999999</v>
+      </c>
+      <c r="U67">
+        <v>23.088730999999999</v>
+      </c>
+      <c r="V67">
+        <v>7.7254870000000002</v>
+      </c>
+      <c r="W67">
+        <v>14.449878999999999</v>
+      </c>
+      <c r="X67">
+        <v>9.2323930000000001</v>
+      </c>
+      <c r="Y67">
+        <v>27.835844000000002</v>
+      </c>
+      <c r="Z67">
+        <v>12.901616000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="64"/>
       <c r="B68" s="70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="71">
         <v>4.1520000000000003E-3</v>
@@ -5529,25 +6898,25 @@
         <v>7.9912640000000001</v>
       </c>
       <c r="I68" s="71">
-        <v>18.50947</v>
+        <v>260648.13273799999</v>
       </c>
       <c r="J68" s="72">
-        <v>23.977871</v>
+        <v>337653.500421</v>
       </c>
       <c r="K68" s="72">
-        <v>7.1095449999999998</v>
+        <v>100115.765037</v>
       </c>
       <c r="L68" s="72">
-        <v>15.054258000000001</v>
+        <v>211992.258187</v>
       </c>
       <c r="M68" s="72">
-        <v>9.9045970000000008</v>
+        <v>139475.352201</v>
       </c>
       <c r="N68" s="73">
-        <v>25.442602000000001</v>
+        <v>358279.663268</v>
       </c>
       <c r="O68" s="74">
-        <v>14.274577000000001</v>
+        <v>201012.88622700001</v>
       </c>
       <c r="P68" s="71">
         <v>39.020888999999997</v>
@@ -5561,11 +6930,32 @@
       <c r="S68" s="73">
         <v>8.7783890000000007</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>18.50947</v>
+      </c>
+      <c r="U68">
+        <v>23.977871</v>
+      </c>
+      <c r="V68">
+        <v>7.1095449999999998</v>
+      </c>
+      <c r="W68">
+        <v>15.054258000000001</v>
+      </c>
+      <c r="X68">
+        <v>9.9045970000000008</v>
+      </c>
+      <c r="Y68">
+        <v>25.442602000000001</v>
+      </c>
+      <c r="Z68">
+        <v>14.274577000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="64"/>
       <c r="B69" s="70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="71">
         <v>1.2645E-2</v>
@@ -5586,25 +6976,25 @@
         <v>10.312754999999999</v>
       </c>
       <c r="I69" s="71">
-        <v>23.413889000000001</v>
+        <v>70467.226016000001</v>
       </c>
       <c r="J69" s="72">
-        <v>22.918465999999999</v>
+        <v>68976.183374</v>
       </c>
       <c r="K69" s="72">
-        <v>7.5377780000000003</v>
+        <v>22685.947810000001</v>
       </c>
       <c r="L69" s="72">
-        <v>10.378365000000001</v>
+        <v>31235.075076000001</v>
       </c>
       <c r="M69" s="72">
-        <v>10.842701999999999</v>
+        <v>32632.559743999998</v>
       </c>
       <c r="N69" s="73">
-        <v>24.911144</v>
+        <v>74973.412804000007</v>
       </c>
       <c r="O69" s="74">
-        <v>11.347931000000001</v>
+        <v>34153.113665999997</v>
       </c>
       <c r="P69" s="71">
         <v>60.560125999999997</v>
@@ -5618,11 +7008,32 @@
       <c r="S69" s="73">
         <v>4.7456319999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <v>23.413889000000001</v>
+      </c>
+      <c r="U69">
+        <v>22.918465999999999</v>
+      </c>
+      <c r="V69">
+        <v>7.5377780000000003</v>
+      </c>
+      <c r="W69">
+        <v>10.378365000000001</v>
+      </c>
+      <c r="X69">
+        <v>10.842701999999999</v>
+      </c>
+      <c r="Y69">
+        <v>24.911144</v>
+      </c>
+      <c r="Z69">
+        <v>11.347931000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="64"/>
       <c r="B70" s="70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="71">
         <v>0</v>
@@ -5643,25 +7054,25 @@
         <v>24.760735</v>
       </c>
       <c r="I70" s="71">
-        <v>15.878102</v>
+        <v>47538.623595999998</v>
       </c>
       <c r="J70" s="72">
-        <v>39.604211999999997</v>
+        <v>118573.978131</v>
       </c>
       <c r="K70" s="72">
-        <v>4.5561199999999999</v>
+        <v>13640.905116</v>
       </c>
       <c r="L70" s="72">
-        <v>15.678823</v>
+        <v>46941.988130999998</v>
       </c>
       <c r="M70" s="72">
-        <v>6.1766519999999998</v>
+        <v>18492.735970000002</v>
       </c>
       <c r="N70" s="73">
-        <v>18.108499999999999</v>
+        <v>54216.377277</v>
       </c>
       <c r="O70" s="74">
-        <v>12.169546</v>
+        <v>36435.303086</v>
       </c>
       <c r="P70" s="71">
         <v>51.646295000000002</v>
@@ -5675,11 +7086,32 @@
       <c r="S70" s="73">
         <v>6.850384</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>15.878102</v>
+      </c>
+      <c r="U70">
+        <v>39.604211999999997</v>
+      </c>
+      <c r="V70">
+        <v>4.5561199999999999</v>
+      </c>
+      <c r="W70">
+        <v>15.678823</v>
+      </c>
+      <c r="X70">
+        <v>6.1766519999999998</v>
+      </c>
+      <c r="Y70">
+        <v>18.108499999999999</v>
+      </c>
+      <c r="Z70">
+        <v>12.169546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="64"/>
       <c r="B71" s="70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="71">
         <v>2.8899000000000001E-2</v>
@@ -5700,25 +7132,25 @@
         <v>8.8508870000000002</v>
       </c>
       <c r="I71" s="71">
-        <v>23.875924999999999</v>
+        <v>175624.15117600001</v>
       </c>
       <c r="J71" s="72">
-        <v>22.012905</v>
+        <v>161920.327881</v>
       </c>
       <c r="K71" s="72">
-        <v>7.6693639999999998</v>
+        <v>56413.541882999998</v>
       </c>
       <c r="L71" s="72">
-        <v>14.949465</v>
+        <v>109963.78591200001</v>
       </c>
       <c r="M71" s="72">
-        <v>11.490726</v>
+        <v>84522.337293999997</v>
       </c>
       <c r="N71" s="73">
-        <v>20.001584000000001</v>
+        <v>147125.65334200001</v>
       </c>
       <c r="O71" s="74">
-        <v>13.581829000000001</v>
+        <v>99903.863886000006</v>
       </c>
       <c r="P71" s="71">
         <v>40.863098000000001</v>
@@ -5732,11 +7164,32 @@
       <c r="S71" s="73">
         <v>9.2124889999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>23.875924999999999</v>
+      </c>
+      <c r="U71">
+        <v>22.012905</v>
+      </c>
+      <c r="V71">
+        <v>7.6693639999999998</v>
+      </c>
+      <c r="W71">
+        <v>14.949465</v>
+      </c>
+      <c r="X71">
+        <v>11.490726</v>
+      </c>
+      <c r="Y71">
+        <v>20.001584000000001</v>
+      </c>
+      <c r="Z71">
+        <v>13.581829000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="64"/>
       <c r="B72" s="70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="71">
         <v>5.5999999999999999E-5</v>
@@ -5757,25 +7210,25 @@
         <v>6.0355309999999998</v>
       </c>
       <c r="I72" s="71">
-        <v>29.084800000000001</v>
+        <v>93311.652822000004</v>
       </c>
       <c r="J72" s="72">
-        <v>11.962481</v>
+        <v>38378.770599000003</v>
       </c>
       <c r="K72" s="72">
-        <v>10.394339</v>
+        <v>33347.762148000002</v>
       </c>
       <c r="L72" s="72">
-        <v>13.047554</v>
+        <v>41859.968141999998</v>
       </c>
       <c r="M72" s="72">
-        <v>9.4134130000000003</v>
+        <v>30200.694804999999</v>
       </c>
       <c r="N72" s="73">
-        <v>26.090236000000001</v>
+        <v>83704.308399999994</v>
       </c>
       <c r="O72" s="74">
-        <v>7.8871760000000002</v>
+        <v>25304.124608999999</v>
       </c>
       <c r="P72" s="71">
         <v>41.747691000000003</v>
@@ -5789,11 +7242,32 @@
       <c r="S72" s="73">
         <v>4.9172560000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>29.084800000000001</v>
+      </c>
+      <c r="U72">
+        <v>11.962481</v>
+      </c>
+      <c r="V72">
+        <v>10.394339</v>
+      </c>
+      <c r="W72">
+        <v>13.047554</v>
+      </c>
+      <c r="X72">
+        <v>9.4134130000000003</v>
+      </c>
+      <c r="Y72">
+        <v>26.090236000000001</v>
+      </c>
+      <c r="Z72">
+        <v>7.8871760000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="64"/>
       <c r="B73" s="70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" s="71">
         <v>1.2119930000000001</v>
@@ -5814,25 +7288,25 @@
         <v>13.837643</v>
       </c>
       <c r="I73" s="71">
-        <v>9.9176179999999992</v>
+        <v>74622.708998000002</v>
       </c>
       <c r="J73" s="72">
-        <v>28.551307999999999</v>
+        <v>214827.39717800001</v>
       </c>
       <c r="K73" s="72">
-        <v>4.7464130000000004</v>
+        <v>35713.236878999996</v>
       </c>
       <c r="L73" s="72">
-        <v>14.787720999999999</v>
+        <v>111266.62363099999</v>
       </c>
       <c r="M73" s="72">
-        <v>7.4067699999999999</v>
+        <v>55730.447777000001</v>
       </c>
       <c r="N73" s="73">
-        <v>34.58558</v>
+        <v>260230.81351000001</v>
       </c>
       <c r="O73" s="74">
-        <v>12.280466000000001</v>
+        <v>92401.388965999999</v>
       </c>
       <c r="P73" s="71">
         <v>42.666505000000001</v>
@@ -5846,11 +7320,32 @@
       <c r="S73" s="73">
         <v>7.6029020000000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <v>9.9176179999999992</v>
+      </c>
+      <c r="U73">
+        <v>28.551307999999999</v>
+      </c>
+      <c r="V73">
+        <v>4.7464130000000004</v>
+      </c>
+      <c r="W73">
+        <v>14.787720999999999</v>
+      </c>
+      <c r="X73">
+        <v>7.4067699999999999</v>
+      </c>
+      <c r="Y73">
+        <v>34.58558</v>
+      </c>
+      <c r="Z73">
+        <v>12.280466000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="64"/>
       <c r="B74" s="70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="71">
         <v>1.4940999999999999E-2</v>
@@ -5871,25 +7366,25 @@
         <v>16.898354999999999</v>
       </c>
       <c r="I74" s="71">
-        <v>10.425321</v>
+        <v>45354.894332000003</v>
       </c>
       <c r="J74" s="72">
-        <v>29.202701000000001</v>
+        <v>127045.04326000001</v>
       </c>
       <c r="K74" s="72">
-        <v>8.812811</v>
+        <v>38339.740177</v>
       </c>
       <c r="L74" s="72">
-        <v>12.545869</v>
+        <v>54580.240588000001</v>
       </c>
       <c r="M74" s="72">
-        <v>7.7940820000000004</v>
+        <v>33907.805238000001</v>
       </c>
       <c r="N74" s="73">
-        <v>31.219201000000002</v>
+        <v>135817.73483</v>
       </c>
       <c r="O74" s="74">
-        <v>12.050129999999999</v>
+        <v>52423.550672999998</v>
       </c>
       <c r="P74" s="71">
         <v>19.459617999999999</v>
@@ -5903,11 +7398,32 @@
       <c r="S74" s="73">
         <v>11.059518000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T74">
+        <v>10.425321</v>
+      </c>
+      <c r="U74">
+        <v>29.202701000000001</v>
+      </c>
+      <c r="V74">
+        <v>8.812811</v>
+      </c>
+      <c r="W74">
+        <v>12.545869</v>
+      </c>
+      <c r="X74">
+        <v>7.7940820000000004</v>
+      </c>
+      <c r="Y74">
+        <v>31.219201000000002</v>
+      </c>
+      <c r="Z74">
+        <v>12.050129999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="64"/>
       <c r="B75" s="70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="80">
         <v>0.67076499999999994</v>
@@ -5928,25 +7444,25 @@
         <v>27.559677000000001</v>
       </c>
       <c r="I75" s="80">
-        <v>15.888812</v>
+        <v>21302.491850999999</v>
       </c>
       <c r="J75" s="81">
-        <v>36.446165000000001</v>
+        <v>48864.203537000001</v>
       </c>
       <c r="K75" s="81">
-        <v>5.4529680000000003</v>
+        <v>7310.9188969999996</v>
       </c>
       <c r="L75" s="81">
-        <v>20.831645000000002</v>
+        <v>27929.459975999998</v>
       </c>
       <c r="M75" s="81">
-        <v>3.3906499999999999</v>
+        <v>4545.9216619999997</v>
       </c>
       <c r="N75" s="82">
-        <v>17.989758999999999</v>
+        <v>24119.279987000002</v>
       </c>
       <c r="O75" s="83">
-        <v>7.7112790000000002</v>
+        <v>10338.686779</v>
       </c>
       <c r="P75" s="80">
         <v>40.082796000000002</v>
@@ -5960,11 +7476,32 @@
       <c r="S75" s="82">
         <v>6.0604459999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>15.888812</v>
+      </c>
+      <c r="U75">
+        <v>36.446165000000001</v>
+      </c>
+      <c r="V75">
+        <v>5.4529680000000003</v>
+      </c>
+      <c r="W75">
+        <v>20.831645000000002</v>
+      </c>
+      <c r="X75">
+        <v>3.3906499999999999</v>
+      </c>
+      <c r="Y75">
+        <v>17.989758999999999</v>
+      </c>
+      <c r="Z75">
+        <v>7.7112790000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="64"/>
       <c r="B76" s="84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="85">
         <v>0.53217300000000001</v>
@@ -5985,25 +7522,25 @@
         <v>3.871305</v>
       </c>
       <c r="I76" s="85">
-        <v>10.006294</v>
+        <v>355020.73280599999</v>
       </c>
       <c r="J76" s="86">
-        <v>30.903448999999998</v>
+        <v>1096446.429241</v>
       </c>
       <c r="K76" s="86">
-        <v>6.6066520000000004</v>
+        <v>234402.295125</v>
       </c>
       <c r="L76" s="86">
-        <v>18.002870999999999</v>
+        <v>638737.23034400004</v>
       </c>
       <c r="M76" s="86">
-        <v>9.8374020000000009</v>
+        <v>349028.487945</v>
       </c>
       <c r="N76" s="87">
-        <v>24.643332000000001</v>
+        <v>874339.08201200003</v>
       </c>
       <c r="O76" s="88">
-        <v>21.775769</v>
+        <v>772598.66441099998</v>
       </c>
       <c r="P76" s="85">
         <v>27.704685000000001</v>
@@ -6017,11 +7554,32 @@
       <c r="S76" s="87">
         <v>12.804247999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>10.006294</v>
+      </c>
+      <c r="U76">
+        <v>30.903448999999998</v>
+      </c>
+      <c r="V76">
+        <v>6.6066520000000004</v>
+      </c>
+      <c r="W76">
+        <v>18.002870999999999</v>
+      </c>
+      <c r="X76">
+        <v>9.8374020000000009</v>
+      </c>
+      <c r="Y76">
+        <v>24.643332000000001</v>
+      </c>
+      <c r="Z76">
+        <v>21.775769</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="64"/>
       <c r="B77" s="70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" s="71">
         <v>9.2829999999999996E-2</v>
@@ -6042,25 +7600,25 @@
         <v>7.6001649999999996</v>
       </c>
       <c r="I77" s="71">
-        <v>7.047828</v>
+        <v>246500.617035</v>
       </c>
       <c r="J77" s="72">
-        <v>25.039111999999999</v>
+        <v>875753.04074800003</v>
       </c>
       <c r="K77" s="72">
-        <v>4.5178580000000004</v>
+        <v>158013.90272899999</v>
       </c>
       <c r="L77" s="72">
-        <v>15.375408</v>
+        <v>537761.11441399995</v>
       </c>
       <c r="M77" s="72">
-        <v>6.9335930000000001</v>
+        <v>242505.20255099999</v>
       </c>
       <c r="N77" s="73">
-        <v>41.086202</v>
+        <v>1437006.4826519999</v>
       </c>
       <c r="O77" s="74">
-        <v>14.754916</v>
+        <v>516059.13895400002</v>
       </c>
       <c r="P77" s="71">
         <v>15.677705</v>
@@ -6074,11 +7632,32 @@
       <c r="S77" s="73">
         <v>10.325422</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <v>7.047828</v>
+      </c>
+      <c r="U77">
+        <v>25.039111999999999</v>
+      </c>
+      <c r="V77">
+        <v>4.5178580000000004</v>
+      </c>
+      <c r="W77">
+        <v>15.375408</v>
+      </c>
+      <c r="X77">
+        <v>6.9335930000000001</v>
+      </c>
+      <c r="Y77">
+        <v>41.086202</v>
+      </c>
+      <c r="Z77">
+        <v>14.754916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="64"/>
       <c r="B78" s="70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" s="71">
         <v>2.3935000000000001E-2</v>
@@ -6099,25 +7678,25 @@
         <v>0.26608700000000002</v>
       </c>
       <c r="I78" s="71">
-        <v>1.8653839999999999</v>
+        <v>284761.6752</v>
       </c>
       <c r="J78" s="72">
-        <v>20.118514000000001</v>
+        <v>3071208.0319289998</v>
       </c>
       <c r="K78" s="72">
-        <v>5.3844810000000001</v>
+        <v>821972.32503499999</v>
       </c>
       <c r="L78" s="72">
-        <v>14.129101</v>
+        <v>2156889.3102290002</v>
       </c>
       <c r="M78" s="72">
-        <v>10.490994000000001</v>
+        <v>1601511.2150999999</v>
       </c>
       <c r="N78" s="73">
-        <v>48.011526000000003</v>
+        <v>7329238.3156380001</v>
       </c>
       <c r="O78" s="74">
-        <v>16.569707000000001</v>
+        <v>2529462.0910060001</v>
       </c>
       <c r="P78" s="71">
         <v>4.4313570000000002</v>
@@ -6131,11 +7710,32 @@
       <c r="S78" s="73">
         <v>15.153535</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T78">
+        <v>1.8653839999999999</v>
+      </c>
+      <c r="U78">
+        <v>20.118514000000001</v>
+      </c>
+      <c r="V78">
+        <v>5.3844810000000001</v>
+      </c>
+      <c r="W78">
+        <v>14.129101</v>
+      </c>
+      <c r="X78">
+        <v>10.490994000000001</v>
+      </c>
+      <c r="Y78">
+        <v>48.011526000000003</v>
+      </c>
+      <c r="Z78">
+        <v>16.569707000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="64"/>
       <c r="B79" s="75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" s="76">
         <v>9.4674999999999995E-2</v>
@@ -6156,25 +7756,25 @@
         <v>1.437543</v>
       </c>
       <c r="I79" s="76">
-        <v>1.5906659999999999</v>
+        <v>924586.08783400001</v>
       </c>
       <c r="J79" s="77">
-        <v>18.038951000000001</v>
+        <v>10485272.71465</v>
       </c>
       <c r="K79" s="77">
-        <v>5.0706389999999999</v>
+        <v>2947346.123532</v>
       </c>
       <c r="L79" s="77">
-        <v>14.836133</v>
+        <v>8623610.919148</v>
       </c>
       <c r="M79" s="77">
-        <v>10.304594</v>
+        <v>5989621.0088520003</v>
       </c>
       <c r="N79" s="78">
-        <v>50.159016999999999</v>
+        <v>29155295.974870998</v>
       </c>
       <c r="O79" s="79">
-        <v>13.507896000000001</v>
+        <v>7851563.7877839999</v>
       </c>
       <c r="P79" s="76">
         <v>4.8092629999999996</v>
@@ -6188,11 +7788,32 @@
       <c r="S79" s="78">
         <v>13.61445</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>1.5906659999999999</v>
+      </c>
+      <c r="U79">
+        <v>18.038951000000001</v>
+      </c>
+      <c r="V79">
+        <v>5.0706389999999999</v>
+      </c>
+      <c r="W79">
+        <v>14.836133</v>
+      </c>
+      <c r="X79">
+        <v>10.304594</v>
+      </c>
+      <c r="Y79">
+        <v>50.159016999999999</v>
+      </c>
+      <c r="Z79">
+        <v>13.507896000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="64"/>
       <c r="B80" s="84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" s="85">
         <v>7.0668999999999996E-2</v>
@@ -6213,25 +7834,25 @@
         <v>27.229379000000002</v>
       </c>
       <c r="I80" s="85">
-        <v>11.251455999999999</v>
+        <v>51526.610264000003</v>
       </c>
       <c r="J80" s="86">
-        <v>37.364263999999999</v>
+        <v>171111.53271299999</v>
       </c>
       <c r="K80" s="86">
-        <v>8.3377630000000007</v>
+        <v>38183.205121999999</v>
       </c>
       <c r="L80" s="86">
-        <v>13.105549</v>
+        <v>60017.521766999998</v>
       </c>
       <c r="M80" s="86">
-        <v>6.7765209999999998</v>
+        <v>31033.420097999999</v>
       </c>
       <c r="N80" s="87">
-        <v>23.164448</v>
+        <v>106082.76045</v>
       </c>
       <c r="O80" s="88">
-        <v>9.3667370000000005</v>
+        <v>42895.443497</v>
       </c>
       <c r="P80" s="85">
         <v>36.717109000000001</v>
@@ -6245,11 +7866,32 @@
       <c r="S80" s="87">
         <v>8.4350269999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>11.251455999999999</v>
+      </c>
+      <c r="U80">
+        <v>37.364263999999999</v>
+      </c>
+      <c r="V80">
+        <v>8.3377630000000007</v>
+      </c>
+      <c r="W80">
+        <v>13.105549</v>
+      </c>
+      <c r="X80">
+        <v>6.7765209999999998</v>
+      </c>
+      <c r="Y80">
+        <v>23.164448</v>
+      </c>
+      <c r="Z80">
+        <v>9.3667370000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="64"/>
       <c r="B81" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="71">
         <v>0.34847099999999998</v>
@@ -6270,25 +7912,25 @@
         <v>22.893757999999998</v>
       </c>
       <c r="I81" s="71">
-        <v>4.3157170000000002</v>
+        <v>243036.567522</v>
       </c>
       <c r="J81" s="72">
-        <v>39.663632</v>
+        <v>2233629.5186009998</v>
       </c>
       <c r="K81" s="72">
-        <v>6.6023699999999996</v>
+        <v>371807.80278299999</v>
       </c>
       <c r="L81" s="72">
-        <v>12.650705</v>
+        <v>712415.53528399998</v>
       </c>
       <c r="M81" s="72">
-        <v>7.0790280000000001</v>
+        <v>398650.44859500002</v>
       </c>
       <c r="N81" s="73">
-        <v>29.688548000000001</v>
+        <v>1671889.6811269999</v>
       </c>
       <c r="O81" s="74">
-        <v>13.434589000000001</v>
+        <v>756559.437959</v>
       </c>
       <c r="P81" s="71">
         <v>14.464933</v>
@@ -6302,11 +7944,32 @@
       <c r="S81" s="73">
         <v>9.3178420000000006</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>4.3157170000000002</v>
+      </c>
+      <c r="U81">
+        <v>39.663632</v>
+      </c>
+      <c r="V81">
+        <v>6.6023699999999996</v>
+      </c>
+      <c r="W81">
+        <v>12.650705</v>
+      </c>
+      <c r="X81">
+        <v>7.0790280000000001</v>
+      </c>
+      <c r="Y81">
+        <v>29.688548000000001</v>
+      </c>
+      <c r="Z81">
+        <v>13.434589000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="64"/>
       <c r="B82" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C82" s="71">
         <v>0.31432399999999999</v>
@@ -6327,25 +7990,25 @@
         <v>7.4472480000000001</v>
       </c>
       <c r="I82" s="71">
-        <v>17.530967</v>
+        <v>403721.70063699997</v>
       </c>
       <c r="J82" s="72">
-        <v>22.595789</v>
+        <v>520359.79280699999</v>
       </c>
       <c r="K82" s="72">
-        <v>7.0273529999999997</v>
+        <v>161833.34144799999</v>
       </c>
       <c r="L82" s="72">
-        <v>14.591536</v>
+        <v>336029.36066900002</v>
       </c>
       <c r="M82" s="72">
-        <v>9.6245919999999998</v>
+        <v>221645.31969199999</v>
       </c>
       <c r="N82" s="73">
-        <v>28.627564</v>
+        <v>659265.90948499995</v>
       </c>
       <c r="O82" s="74">
-        <v>13.471135</v>
+        <v>310227.586648</v>
       </c>
       <c r="P82" s="71">
         <v>42.129841999999996</v>
@@ -6359,11 +8022,32 @@
       <c r="S82" s="73">
         <v>7.9534260000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T82">
+        <v>17.530967</v>
+      </c>
+      <c r="U82">
+        <v>22.595789</v>
+      </c>
+      <c r="V82">
+        <v>7.0273529999999997</v>
+      </c>
+      <c r="W82">
+        <v>14.591536</v>
+      </c>
+      <c r="X82">
+        <v>9.6245919999999998</v>
+      </c>
+      <c r="Y82">
+        <v>28.627564</v>
+      </c>
+      <c r="Z82">
+        <v>13.471135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="64"/>
       <c r="B83" s="75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C83" s="76">
         <v>0.33546100000000001</v>
@@ -6384,25 +8068,25 @@
         <v>2.0867119999999999</v>
       </c>
       <c r="I83" s="76">
-        <v>4.1826530000000002</v>
+        <v>3667503.3842000002</v>
       </c>
       <c r="J83" s="77">
-        <v>21.807897000000001</v>
+        <v>19121963.297804002</v>
       </c>
       <c r="K83" s="77">
-        <v>5.6256199999999996</v>
+        <v>4932749.7485809997</v>
       </c>
       <c r="L83" s="77">
-        <v>14.206645</v>
+        <v>12456907.052444</v>
       </c>
       <c r="M83" s="77">
-        <v>9.7853390000000005</v>
+        <v>8580143.3362680003</v>
       </c>
       <c r="N83" s="78">
-        <v>44.391846000000001</v>
+        <v>38924397.192263998</v>
       </c>
       <c r="O83" s="79">
-        <v>16.892735999999999</v>
+        <v>14812169.676778</v>
       </c>
       <c r="P83" s="76">
         <v>17.129508000000001</v>
@@ -6416,11 +8100,32 @@
       <c r="S83" s="78">
         <v>11.996321</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T83">
+        <v>4.1826530000000002</v>
+      </c>
+      <c r="U83">
+        <v>21.807897000000001</v>
+      </c>
+      <c r="V83">
+        <v>5.6256199999999996</v>
+      </c>
+      <c r="W83">
+        <v>14.206645</v>
+      </c>
+      <c r="X83">
+        <v>9.7853390000000005</v>
+      </c>
+      <c r="Y83">
+        <v>44.391846000000001</v>
+      </c>
+      <c r="Z83">
+        <v>16.892735999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="64"/>
       <c r="B84" s="84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84" s="85">
         <v>0.19755300000000001</v>
@@ -6441,25 +8146,25 @@
         <v>15.669418</v>
       </c>
       <c r="I84" s="85">
-        <v>26.324221000000001</v>
+        <v>80737.872006000005</v>
       </c>
       <c r="J84" s="86">
-        <v>26.812190999999999</v>
+        <v>82234.503463000001</v>
       </c>
       <c r="K84" s="86">
-        <v>3.8493230000000001</v>
+        <v>11806.091236</v>
       </c>
       <c r="L84" s="86">
-        <v>12.807655</v>
+        <v>39281.801952000002</v>
       </c>
       <c r="M84" s="86">
-        <v>7.2625760000000001</v>
+        <v>22274.730360000001</v>
       </c>
       <c r="N84" s="87">
-        <v>22.927568999999998</v>
+        <v>70320.150951000003</v>
       </c>
       <c r="O84" s="88">
-        <v>12.858859000000001</v>
+        <v>39438.848192999998</v>
       </c>
       <c r="P84" s="85">
         <v>55.650367000000003</v>
@@ -6473,11 +8178,32 @@
       <c r="S84" s="87">
         <v>6.3041309999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>26.324221000000001</v>
+      </c>
+      <c r="U84">
+        <v>26.812190999999999</v>
+      </c>
+      <c r="V84">
+        <v>3.8493230000000001</v>
+      </c>
+      <c r="W84">
+        <v>12.807655</v>
+      </c>
+      <c r="X84">
+        <v>7.2625760000000001</v>
+      </c>
+      <c r="Y84">
+        <v>22.927568999999998</v>
+      </c>
+      <c r="Z84">
+        <v>12.858859000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="64"/>
       <c r="B85" s="89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C85" s="71">
         <v>1.9397999999999999E-2</v>
@@ -6498,25 +8224,25 @@
         <v>0.42852499999999999</v>
       </c>
       <c r="I85" s="71">
-        <v>34.268641000000002</v>
+        <v>25622.694455000001</v>
       </c>
       <c r="J85" s="72">
-        <v>17.242342000000001</v>
+        <v>12892.115028</v>
       </c>
       <c r="K85" s="72">
-        <v>3.3222680000000002</v>
+        <v>2484.0629869999998</v>
       </c>
       <c r="L85" s="72">
-        <v>13.116277999999999</v>
+        <v>9807.0532129999992</v>
       </c>
       <c r="M85" s="72">
-        <v>5.7732809999999999</v>
+        <v>4316.687731</v>
       </c>
       <c r="N85" s="73">
-        <v>26.277190000000001</v>
+        <v>19647.479440999999</v>
       </c>
       <c r="O85" s="74">
-        <v>8.5656300000000005</v>
+        <v>6404.5291690000004</v>
       </c>
       <c r="P85" s="71">
         <v>34.670243999999997</v>
@@ -6530,11 +8256,32 @@
       <c r="S85" s="73">
         <v>8.1573519999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>34.268641000000002</v>
+      </c>
+      <c r="U85">
+        <v>17.242342000000001</v>
+      </c>
+      <c r="V85">
+        <v>3.3222680000000002</v>
+      </c>
+      <c r="W85">
+        <v>13.116277999999999</v>
+      </c>
+      <c r="X85">
+        <v>5.7732809999999999</v>
+      </c>
+      <c r="Y85">
+        <v>26.277190000000001</v>
+      </c>
+      <c r="Z85">
+        <v>8.5656300000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="64"/>
       <c r="B86" s="70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C86" s="71">
         <v>1.3327E-2</v>
@@ -6555,25 +8302,25 @@
         <v>7.8689359999999997</v>
       </c>
       <c r="I86" s="71">
-        <v>17.655628</v>
+        <v>290038.96005200001</v>
       </c>
       <c r="J86" s="72">
-        <v>24.185600000000001</v>
+        <v>397310.49043200002</v>
       </c>
       <c r="K86" s="72">
-        <v>7.6750699999999998</v>
+        <v>126082.70963</v>
       </c>
       <c r="L86" s="72">
-        <v>15.449249</v>
+        <v>253793.51778699999</v>
       </c>
       <c r="M86" s="72">
-        <v>10.312939</v>
+        <v>169416.47257300001</v>
       </c>
       <c r="N86" s="73">
-        <v>24.721505000000001</v>
+        <v>406114.10847400001</v>
       </c>
       <c r="O86" s="74">
-        <v>13.815480000000001</v>
+        <v>226954.685065</v>
       </c>
       <c r="P86" s="71">
         <v>34.209387999999997</v>
@@ -6587,11 +8334,32 @@
       <c r="S86" s="73">
         <v>9.5701070000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>17.655628</v>
+      </c>
+      <c r="U86">
+        <v>24.185600000000001</v>
+      </c>
+      <c r="V86">
+        <v>7.6750699999999998</v>
+      </c>
+      <c r="W86">
+        <v>15.449249</v>
+      </c>
+      <c r="X86">
+        <v>10.312939</v>
+      </c>
+      <c r="Y86">
+        <v>24.721505000000001</v>
+      </c>
+      <c r="Z86">
+        <v>13.815480000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="64"/>
       <c r="B87" s="70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C87" s="71">
         <v>0.86368100000000003</v>
@@ -6612,25 +8380,25 @@
         <v>3.143942</v>
       </c>
       <c r="I87" s="71">
-        <v>16.759343000000001</v>
+        <v>866167.80246499996</v>
       </c>
       <c r="J87" s="72">
-        <v>21.350546000000001</v>
+        <v>1103453.502228</v>
       </c>
       <c r="K87" s="72">
-        <v>8.0185519999999997</v>
+        <v>414420.29177900002</v>
       </c>
       <c r="L87" s="72">
-        <v>14.148505999999999</v>
+        <v>731232.73298600002</v>
       </c>
       <c r="M87" s="72">
-        <v>9.8911619999999996</v>
+        <v>511201.77696500003</v>
       </c>
       <c r="N87" s="73">
-        <v>29.831892</v>
+        <v>1541792.2240480001</v>
       </c>
       <c r="O87" s="74">
-        <v>16.445163000000001</v>
+        <v>849930.16835299996</v>
       </c>
       <c r="P87" s="71">
         <v>34.961782999999997</v>
@@ -6644,11 +8412,32 @@
       <c r="S87" s="73">
         <v>10.215156</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>16.759343000000001</v>
+      </c>
+      <c r="U87">
+        <v>21.350546000000001</v>
+      </c>
+      <c r="V87">
+        <v>8.0185519999999997</v>
+      </c>
+      <c r="W87">
+        <v>14.148505999999999</v>
+      </c>
+      <c r="X87">
+        <v>9.8911619999999996</v>
+      </c>
+      <c r="Y87">
+        <v>29.831892</v>
+      </c>
+      <c r="Z87">
+        <v>16.445163000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="64"/>
       <c r="B88" s="70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C88" s="71">
         <v>1.2392069999999999</v>
@@ -6669,25 +8458,25 @@
         <v>16.158391999999999</v>
       </c>
       <c r="I88" s="71">
-        <v>5.7086350000000001</v>
+        <v>39638.273015999999</v>
       </c>
       <c r="J88" s="72">
-        <v>29.578889</v>
+        <v>205382.91069300001</v>
       </c>
       <c r="K88" s="72">
-        <v>5.963076</v>
+        <v>41404.997743</v>
       </c>
       <c r="L88" s="72">
-        <v>12.179275000000001</v>
+        <v>84567.576988000001</v>
       </c>
       <c r="M88" s="72">
-        <v>8.0609570000000001</v>
+        <v>55971.772556000004</v>
       </c>
       <c r="N88" s="73">
-        <v>38.509168000000003</v>
+        <v>267390.87566899997</v>
       </c>
       <c r="O88" s="74">
-        <v>11.747806000000001</v>
+        <v>81571.644421999998</v>
       </c>
       <c r="P88" s="71">
         <v>19.976834</v>
@@ -6701,11 +8490,32 @@
       <c r="S88" s="73">
         <v>8.8345749999999992</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T88">
+        <v>5.7086350000000001</v>
+      </c>
+      <c r="U88">
+        <v>29.578889</v>
+      </c>
+      <c r="V88">
+        <v>5.963076</v>
+      </c>
+      <c r="W88">
+        <v>12.179275000000001</v>
+      </c>
+      <c r="X88">
+        <v>8.0609570000000001</v>
+      </c>
+      <c r="Y88">
+        <v>38.509168000000003</v>
+      </c>
+      <c r="Z88">
+        <v>11.747806000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="64"/>
       <c r="B89" s="70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C89" s="71">
         <v>0.46223900000000001</v>
@@ -6726,25 +8536,25 @@
         <v>4.503749</v>
       </c>
       <c r="I89" s="71">
-        <v>7.7352920000000003</v>
+        <v>2086494.3623810001</v>
       </c>
       <c r="J89" s="72">
-        <v>31.541827000000001</v>
+        <v>8507997.6802450009</v>
       </c>
       <c r="K89" s="72">
-        <v>6.4064050000000003</v>
+        <v>1728044.3242190001</v>
       </c>
       <c r="L89" s="72">
-        <v>13.134067</v>
+        <v>3542743.8133049998</v>
       </c>
       <c r="M89" s="72">
-        <v>8.4182900000000007</v>
+        <v>2270724.2995739998</v>
       </c>
       <c r="N89" s="73">
-        <v>32.764119000000001</v>
+        <v>8837694.9756370001</v>
       </c>
       <c r="O89" s="74">
-        <v>24.677486999999999</v>
+        <v>6656431.2643680004</v>
       </c>
       <c r="P89" s="71">
         <v>20.832892000000001</v>
@@ -6758,11 +8568,32 @@
       <c r="S89" s="73">
         <v>11.757769</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T89">
+        <v>7.7352920000000003</v>
+      </c>
+      <c r="U89">
+        <v>31.541827000000001</v>
+      </c>
+      <c r="V89">
+        <v>6.4064050000000003</v>
+      </c>
+      <c r="W89">
+        <v>13.134067</v>
+      </c>
+      <c r="X89">
+        <v>8.4182900000000007</v>
+      </c>
+      <c r="Y89">
+        <v>32.764119000000001</v>
+      </c>
+      <c r="Z89">
+        <v>24.677486999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" s="76">
         <v>0.124586</v>
@@ -6783,25 +8614,25 @@
         <v>3.5730729999999999</v>
       </c>
       <c r="I90" s="76">
-        <v>1.5189250000000001</v>
+        <v>926196.12235399999</v>
       </c>
       <c r="J90" s="77">
-        <v>19.142074000000001</v>
+        <v>11672281.001224</v>
       </c>
       <c r="K90" s="77">
-        <v>5.1775770000000003</v>
+        <v>3157136.1207670001</v>
       </c>
       <c r="L90" s="77">
-        <v>14.524673</v>
+        <v>8856723.9588329997</v>
       </c>
       <c r="M90" s="77">
-        <v>10.142029000000001</v>
+        <v>6184314.9618899999</v>
       </c>
       <c r="N90" s="78">
-        <v>49.494723</v>
+        <v>30180445.282917</v>
       </c>
       <c r="O90" s="79">
-        <v>13.179558999999999</v>
+        <v>8036512.6344769998</v>
       </c>
       <c r="P90" s="76">
         <v>4.3541220000000003</v>
@@ -6815,11 +8646,32 @@
       <c r="S90" s="78">
         <v>12.193127</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>1.5189250000000001</v>
+      </c>
+      <c r="U90">
+        <v>19.142074000000001</v>
+      </c>
+      <c r="V90">
+        <v>5.1775770000000003</v>
+      </c>
+      <c r="W90">
+        <v>14.524673</v>
+      </c>
+      <c r="X90">
+        <v>10.142029000000001</v>
+      </c>
+      <c r="Y90">
+        <v>49.494723</v>
+      </c>
+      <c r="Z90">
+        <v>13.179558999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="64"/>
       <c r="B91" s="84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" s="85">
         <v>0.110486</v>
@@ -6840,25 +8692,25 @@
         <v>14.898704</v>
       </c>
       <c r="I91" s="85">
-        <v>25.282852999999999</v>
+        <v>178803.18655799999</v>
       </c>
       <c r="J91" s="86">
-        <v>23.879574999999999</v>
+        <v>168879.04382799999</v>
       </c>
       <c r="K91" s="86">
-        <v>7.7868779999999997</v>
+        <v>55069.681169000003</v>
       </c>
       <c r="L91" s="86">
-        <v>15.155983000000001</v>
+        <v>107184.81832999999</v>
       </c>
       <c r="M91" s="86">
-        <v>6.6527750000000001</v>
+        <v>47049.173421</v>
       </c>
       <c r="N91" s="87">
-        <v>21.234762</v>
+        <v>150174.63210300001</v>
       </c>
       <c r="O91" s="88">
-        <v>9.9373039999999992</v>
+        <v>70277.734773999997</v>
       </c>
       <c r="P91" s="85">
         <v>50.759960999999997</v>
@@ -6872,11 +8724,32 @@
       <c r="S91" s="87">
         <v>6.7412070000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>25.282852999999999</v>
+      </c>
+      <c r="U91">
+        <v>23.879574999999999</v>
+      </c>
+      <c r="V91">
+        <v>7.7868779999999997</v>
+      </c>
+      <c r="W91">
+        <v>15.155983000000001</v>
+      </c>
+      <c r="X91">
+        <v>6.6527750000000001</v>
+      </c>
+      <c r="Y91">
+        <v>21.234762</v>
+      </c>
+      <c r="Z91">
+        <v>9.9373039999999992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="64"/>
       <c r="B92" s="70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" s="71">
         <v>1.6351000000000001E-2</v>
@@ -6897,25 +8770,25 @@
         <v>1.9084159999999999</v>
       </c>
       <c r="I92" s="71">
-        <v>15.042097999999999</v>
+        <v>92417.301636999997</v>
       </c>
       <c r="J92" s="72">
-        <v>25.491278999999999</v>
+        <v>156616.13634699999</v>
       </c>
       <c r="K92" s="72">
-        <v>8.7371739999999996</v>
+        <v>53680.412257999997</v>
       </c>
       <c r="L92" s="72">
-        <v>16.542152000000002</v>
+        <v>101633.498863</v>
       </c>
       <c r="M92" s="72">
-        <v>8.5432059999999996</v>
+        <v>52488.693530999997</v>
       </c>
       <c r="N92" s="73">
-        <v>25.644091</v>
+        <v>157554.998586</v>
       </c>
       <c r="O92" s="74">
-        <v>21.499362000000001</v>
+        <v>132090.15469299999</v>
       </c>
       <c r="P92" s="71">
         <v>44.749212</v>
@@ -6929,11 +8802,32 @@
       <c r="S92" s="73">
         <v>8.8237590000000008</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>15.042097999999999</v>
+      </c>
+      <c r="U92">
+        <v>25.491278999999999</v>
+      </c>
+      <c r="V92">
+        <v>8.7371739999999996</v>
+      </c>
+      <c r="W92">
+        <v>16.542152000000002</v>
+      </c>
+      <c r="X92">
+        <v>8.5432059999999996</v>
+      </c>
+      <c r="Y92">
+        <v>25.644091</v>
+      </c>
+      <c r="Z92">
+        <v>21.499362000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="64"/>
       <c r="B93" s="70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C93" s="71">
         <v>1.5342720000000001</v>
@@ -6954,25 +8848,25 @@
         <v>2.8409230000000001</v>
       </c>
       <c r="I93" s="71">
-        <v>10.136628999999999</v>
+        <v>1856.2629710000001</v>
       </c>
       <c r="J93" s="72">
-        <v>13.358763</v>
+        <v>2446.3138439999998</v>
       </c>
       <c r="K93" s="72">
-        <v>4.6402799999999997</v>
+        <v>849.74790099999996</v>
       </c>
       <c r="L93" s="72">
-        <v>19.365224000000001</v>
+        <v>3546.242757</v>
       </c>
       <c r="M93" s="72">
-        <v>9.5434839999999994</v>
+        <v>1747.6437410000001</v>
       </c>
       <c r="N93" s="73">
-        <v>42.955620000000003</v>
+        <v>7866.2170759999999</v>
       </c>
       <c r="O93" s="74">
-        <v>11.442999</v>
+        <v>2095.4909090000001</v>
       </c>
       <c r="P93" s="71">
         <v>22.780891</v>
@@ -6986,11 +8880,32 @@
       <c r="S93" s="73">
         <v>8.1254919999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <v>10.136628999999999</v>
+      </c>
+      <c r="U93">
+        <v>13.358763</v>
+      </c>
+      <c r="V93">
+        <v>4.6402799999999997</v>
+      </c>
+      <c r="W93">
+        <v>19.365224000000001</v>
+      </c>
+      <c r="X93">
+        <v>9.5434839999999994</v>
+      </c>
+      <c r="Y93">
+        <v>42.955620000000003</v>
+      </c>
+      <c r="Z93">
+        <v>11.442999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="64"/>
       <c r="B94" s="70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94" s="71">
         <v>0</v>
@@ -7011,25 +8926,25 @@
         <v>2.422479</v>
       </c>
       <c r="I94" s="71">
-        <v>2.8262489999999998</v>
+        <v>25172.86015</v>
       </c>
       <c r="J94" s="72">
-        <v>20.669270000000001</v>
+        <v>184097.22763800001</v>
       </c>
       <c r="K94" s="72">
-        <v>6.1089770000000003</v>
+        <v>54411.490131999999</v>
       </c>
       <c r="L94" s="72">
-        <v>20.864103</v>
+        <v>185832.57178200001</v>
       </c>
       <c r="M94" s="72">
-        <v>12.424397000000001</v>
+        <v>110661.723178</v>
       </c>
       <c r="N94" s="73">
-        <v>37.107004000000003</v>
+        <v>330504.97914200003</v>
       </c>
       <c r="O94" s="74">
-        <v>16.039553999999999</v>
+        <v>142861.240177</v>
       </c>
       <c r="P94" s="71">
         <v>19.384886000000002</v>
@@ -7043,11 +8958,32 @@
       <c r="S94" s="73">
         <v>7.3990840000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <v>2.8262489999999998</v>
+      </c>
+      <c r="U94">
+        <v>20.669270000000001</v>
+      </c>
+      <c r="V94">
+        <v>6.1089770000000003</v>
+      </c>
+      <c r="W94">
+        <v>20.864103</v>
+      </c>
+      <c r="X94">
+        <v>12.424397000000001</v>
+      </c>
+      <c r="Y94">
+        <v>37.107004000000003</v>
+      </c>
+      <c r="Z94">
+        <v>16.039553999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="64"/>
       <c r="B95" s="70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" s="71">
         <v>7.3090000000000002E-2</v>
@@ -7068,25 +9004,25 @@
         <v>10.250170000000001</v>
       </c>
       <c r="I95" s="71">
-        <v>26.934172</v>
+        <v>90814.235734999995</v>
       </c>
       <c r="J95" s="72">
-        <v>19.226565000000001</v>
+        <v>64826.415884000002</v>
       </c>
       <c r="K95" s="72">
-        <v>10.181832999999999</v>
+        <v>34330.195011999996</v>
       </c>
       <c r="L95" s="72">
-        <v>14.18493</v>
+        <v>47827.480807</v>
       </c>
       <c r="M95" s="72">
-        <v>6.2712909999999997</v>
+        <v>21144.979439999999</v>
       </c>
       <c r="N95" s="73">
-        <v>23.193059999999999</v>
+        <v>78200.288983000006</v>
       </c>
       <c r="O95" s="74">
-        <v>10.536946</v>
+        <v>35527.534144999998</v>
       </c>
       <c r="P95" s="71">
         <v>55.019224999999999</v>
@@ -7100,11 +9036,32 @@
       <c r="S95" s="73">
         <v>7.2087450000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T95">
+        <v>26.934172</v>
+      </c>
+      <c r="U95">
+        <v>19.226565000000001</v>
+      </c>
+      <c r="V95">
+        <v>10.181832999999999</v>
+      </c>
+      <c r="W95">
+        <v>14.18493</v>
+      </c>
+      <c r="X95">
+        <v>6.2712909999999997</v>
+      </c>
+      <c r="Y95">
+        <v>23.193059999999999</v>
+      </c>
+      <c r="Z95">
+        <v>10.536946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
       <c r="B96" s="75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C96" s="76">
         <v>0.45147399999999999</v>
@@ -7125,25 +9082,25 @@
         <v>17.848365000000001</v>
       </c>
       <c r="I96" s="76">
-        <v>12.23213</v>
+        <v>77439.942230000001</v>
       </c>
       <c r="J96" s="77">
-        <v>30.891068000000001</v>
+        <v>195567.12625999999</v>
       </c>
       <c r="K96" s="77">
-        <v>6.0828490000000004</v>
+        <v>38509.688124</v>
       </c>
       <c r="L96" s="77">
-        <v>13.809801</v>
+        <v>87427.959348000004</v>
       </c>
       <c r="M96" s="77">
-        <v>8.2805049999999998</v>
+        <v>52422.748106999999</v>
       </c>
       <c r="N96" s="78">
-        <v>28.703647</v>
+        <v>181718.866935</v>
       </c>
       <c r="O96" s="79">
-        <v>15.138676999999999</v>
+        <v>95840.894232999999</v>
       </c>
       <c r="P96" s="76">
         <v>36.064025000000001</v>
@@ -7157,11 +9114,32 @@
       <c r="S96" s="78">
         <v>9.5181769999999997</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>12.23213</v>
+      </c>
+      <c r="U96">
+        <v>30.891068000000001</v>
+      </c>
+      <c r="V96">
+        <v>6.0828490000000004</v>
+      </c>
+      <c r="W96">
+        <v>13.809801</v>
+      </c>
+      <c r="X96">
+        <v>8.2805049999999998</v>
+      </c>
+      <c r="Y96">
+        <v>28.703647</v>
+      </c>
+      <c r="Z96">
+        <v>15.138676999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="64"/>
       <c r="B97" s="84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C97" s="85">
         <v>5.6774999999999999E-2</v>
@@ -7182,25 +9160,25 @@
         <v>12.268167999999999</v>
       </c>
       <c r="I97" s="85">
-        <v>22.554725999999999</v>
+        <v>331410.73258900002</v>
       </c>
       <c r="J97" s="86">
-        <v>23.947914999999998</v>
+        <v>351881.73498900002</v>
       </c>
       <c r="K97" s="86">
-        <v>7.8759959999999998</v>
+        <v>115726.9472</v>
       </c>
       <c r="L97" s="86">
-        <v>13.97847</v>
+        <v>205394.42228100001</v>
       </c>
       <c r="M97" s="86">
-        <v>9.6898339999999994</v>
+        <v>142378.80465199999</v>
       </c>
       <c r="N97" s="87">
-        <v>21.949618999999998</v>
+        <v>322519.525486</v>
       </c>
       <c r="O97" s="88">
-        <v>11.457629000000001</v>
+        <v>168354.12764300001</v>
       </c>
       <c r="P97" s="85">
         <v>48.638376000000001</v>
@@ -7214,11 +9192,32 @@
       <c r="S97" s="87">
         <v>6.6466839999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T97">
+        <v>22.554725999999999</v>
+      </c>
+      <c r="U97">
+        <v>23.947914999999998</v>
+      </c>
+      <c r="V97">
+        <v>7.8759959999999998</v>
+      </c>
+      <c r="W97">
+        <v>13.97847</v>
+      </c>
+      <c r="X97">
+        <v>9.6898339999999994</v>
+      </c>
+      <c r="Y97">
+        <v>21.949618999999998</v>
+      </c>
+      <c r="Z97">
+        <v>11.457629000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
       <c r="B98" s="75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" s="76">
         <v>4.0826000000000001E-2</v>
@@ -7239,25 +9238,25 @@
         <v>13.690860000000001</v>
       </c>
       <c r="I98" s="76">
-        <v>13.403382000000001</v>
+        <v>263064.972985</v>
       </c>
       <c r="J98" s="77">
-        <v>32.479058000000002</v>
+        <v>637458.67366900004</v>
       </c>
       <c r="K98" s="77">
-        <v>6.1113689999999998</v>
+        <v>119946.369186</v>
       </c>
       <c r="L98" s="77">
-        <v>15.199586999999999</v>
+        <v>298318.64990399999</v>
       </c>
       <c r="M98" s="77">
-        <v>7.9016489999999999</v>
+        <v>155083.765644</v>
       </c>
       <c r="N98" s="78">
-        <v>24.904955000000001</v>
+        <v>488803.58024500002</v>
       </c>
       <c r="O98" s="79">
-        <v>16.371148999999999</v>
+        <v>321312.605201</v>
       </c>
       <c r="P98" s="76">
         <v>32.744605999999997</v>
@@ -7271,8 +9270,29 @@
       <c r="S98" s="78">
         <v>10.217364</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>13.403382000000001</v>
+      </c>
+      <c r="U98">
+        <v>32.479058000000002</v>
+      </c>
+      <c r="V98">
+        <v>6.1113689999999998</v>
+      </c>
+      <c r="W98">
+        <v>15.199586999999999</v>
+      </c>
+      <c r="X98">
+        <v>7.9016489999999999</v>
+      </c>
+      <c r="Y98">
+        <v>24.904955000000001</v>
+      </c>
+      <c r="Z98">
+        <v>16.371148999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="90"/>
       <c r="B99" s="91"/>
       <c r="C99" s="81"/>
@@ -7293,9 +9313,9 @@
       <c r="R99" s="81"/>
       <c r="S99" s="81"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C100" s="92"/>
       <c r="D100" s="92"/>
@@ -7315,9 +9335,9 @@
       <c r="R100" s="92"/>
       <c r="S100" s="92"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C101" s="92"/>
       <c r="D101" s="92"/>
@@ -7337,9 +9357,9 @@
       <c r="R101" s="92"/>
       <c r="S101" s="92"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
@@ -7359,9 +9379,9 @@
       <c r="R102" s="92"/>
       <c r="S102" s="92"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C103" s="92"/>
       <c r="D103" s="92"/>
@@ -7381,9 +9401,9 @@
       <c r="R103" s="92"/>
       <c r="S103" s="92"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C104" s="92"/>
       <c r="D104" s="92"/>
@@ -7403,7 +9423,10 @@
       <c r="R104" s="92"/>
       <c r="S104" s="92"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
       <c r="E105" s="92"/>
@@ -7422,7 +9445,10 @@
       <c r="R105" s="92"/>
       <c r="S105" s="92"/>
     </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B106" s="93"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -7442,10 +9468,8 @@
       <c r="R106" s="92"/>
       <c r="S106" s="92"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B107" s="94" t="s">
-        <v>176</v>
-      </c>
+    <row r="107" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="93"/>
       <c r="C107" s="92"/>
       <c r="D107" s="92"/>
       <c r="E107" s="92"/>
@@ -7464,8 +9488,10 @@
       <c r="R107" s="92"/>
       <c r="S107" s="92"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B108" s="97" t="s">
+        <v>181</v>
+      </c>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
       <c r="E108" s="92"/>
@@ -7484,10 +9510,8 @@
       <c r="R108" s="92"/>
       <c r="S108" s="92"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B109" s="97" t="s">
-        <v>178</v>
-      </c>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
       <c r="C109" s="92"/>
       <c r="D109" s="92"/>
       <c r="E109" s="92"/>
@@ -7506,9 +9530,9 @@
       <c r="R109" s="92"/>
       <c r="S109" s="92"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B110" s="97" t="s">
-        <v>179</v>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
@@ -7528,9 +9552,9 @@
       <c r="R110" s="92"/>
       <c r="S110" s="92"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B111" s="97" t="s">
-        <v>180</v>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B111" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C111" s="92"/>
       <c r="D111" s="92"/>
@@ -7550,9 +9574,9 @@
       <c r="R111" s="92"/>
       <c r="S111" s="92"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>177</v>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B112" s="97" t="s">
+        <v>182</v>
       </c>
       <c r="C112" s="92"/>
       <c r="D112" s="92"/>
@@ -7573,7 +9597,9 @@
       <c r="S112" s="92"/>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B113" s="95"/>
+      <c r="B113" s="97" t="s">
+        <v>180</v>
+      </c>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
       <c r="E113" s="92"/>
@@ -7592,17 +9618,56 @@
       <c r="R113" s="92"/>
       <c r="S113" s="92"/>
     </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B114" s="94"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92"/>
+      <c r="L114" s="92"/>
+      <c r="M114" s="92"/>
+      <c r="N114" s="92"/>
+      <c r="O114" s="92"/>
+      <c r="P114" s="92"/>
+      <c r="Q114" s="92"/>
+      <c r="R114" s="92"/>
+      <c r="S114" s="92"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B115" s="94"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="95"/>
+      <c r="J115" s="95"/>
+      <c r="K115" s="95"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="95"/>
+      <c r="P115" s="95"/>
+      <c r="Q115" s="95"/>
+      <c r="R115" s="95"/>
+      <c r="S115" s="95"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7C2DC8AA-DCDA-4115-909C-ED2D1C4C4A9B}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{155BB6CC-E68C-449B-894C-640C2A7E6EC9}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{002B4732-CA62-46D2-82CA-C9CEDF4CFA50}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1C87DC5F-89A2-4404-987F-DE80BAE06FE2}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{FAAD0A42-473C-475F-BB89-68D6EC9B5AC5}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{BFB446D6-1FFC-42D9-8B2C-CB71DEE613C1}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9E908490-B56C-4627-B4EA-AFCB238D8301}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A6CCAC23-AD93-4CB1-B35C-E353AB322388}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{FDF4275E-D6AC-4C80-8F2F-C5FE0E1A2681}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{984547DA-91D0-47CD-B865-718C150A9856}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{C8CCEB97-D2F0-4495-A8A4-65A5AA0B91C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
